--- a/ComparacionAlgoritmos.xlsx
+++ b/ComparacionAlgoritmos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamerHouse\Documents\0_UNISON\Matematicas Discretas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamerHouse\Documents\0_UNISON\Matematicas Discretas\ComparacionAlgoritmoOrden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4928760-2678-4716-9DF0-650017E0B906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E82DF6-E4FB-4DB1-8BEC-151711CAF10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{871D0286-CB86-4B51-9503-973F74462E19}"/>
   </bookViews>
@@ -35,9 +35,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Tamaño</t>
+  </si>
+  <si>
+    <t>Inserción</t>
+  </si>
+  <si>
+    <t>Burbuja</t>
+  </si>
+  <si>
+    <t>BurbujaO</t>
+  </si>
+  <si>
+    <t>Selección</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Rápido</t>
+  </si>
+  <si>
+    <t>Mezcla</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,8 +77,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -56,6 +96,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -72,9 +160,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -143,7 +241,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$1:$CV$1</c:f>
+              <c:f>Hoja1!$B$1:$CW$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -452,309 +550,309 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$CV$2</c:f>
+              <c:f>Hoja1!$B$2:$CW$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>200</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>250</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>350</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>400</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>450</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>550</c:v>
+                  <c:v>1650</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>500</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>650</c:v>
+                  <c:v>1850</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>650</c:v>
+                  <c:v>2350</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>650</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>700</c:v>
+                  <c:v>3150</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>700</c:v>
+                  <c:v>2850</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>750</c:v>
+                  <c:v>3800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>800</c:v>
+                  <c:v>3900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1000</c:v>
+                  <c:v>4300</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>950</c:v>
+                  <c:v>4550</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1000</c:v>
+                  <c:v>4850</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1100</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1150</c:v>
+                  <c:v>6150</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1150</c:v>
+                  <c:v>6550</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1250</c:v>
+                  <c:v>6700</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1250</c:v>
+                  <c:v>7100</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1250</c:v>
+                  <c:v>7850</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1350</c:v>
+                  <c:v>8450</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1350</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1450</c:v>
+                  <c:v>9100</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1500</c:v>
+                  <c:v>9350</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1650</c:v>
+                  <c:v>10300</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1700</c:v>
+                  <c:v>10600</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1650</c:v>
+                  <c:v>11100</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1850</c:v>
+                  <c:v>11050</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1900</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1950</c:v>
+                  <c:v>12700</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2200</c:v>
+                  <c:v>14150</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2300</c:v>
+                  <c:v>14750</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2100</c:v>
+                  <c:v>14600</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2250</c:v>
+                  <c:v>15800</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2350</c:v>
+                  <c:v>17100</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2300</c:v>
+                  <c:v>17600</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2600</c:v>
+                  <c:v>17800</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2550</c:v>
+                  <c:v>17950</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2600</c:v>
+                  <c:v>19100</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2650</c:v>
+                  <c:v>20400</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3000</c:v>
+                  <c:v>29150</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2850</c:v>
+                  <c:v>21900</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2850</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3050</c:v>
+                  <c:v>21800</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3000</c:v>
+                  <c:v>23550</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3300</c:v>
+                  <c:v>24050</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3350</c:v>
+                  <c:v>24950</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3450</c:v>
+                  <c:v>25650</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3550</c:v>
+                  <c:v>28000</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3550</c:v>
+                  <c:v>29550</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3900</c:v>
+                  <c:v>28650</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3700</c:v>
+                  <c:v>29700</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3700</c:v>
+                  <c:v>30600</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3900</c:v>
+                  <c:v>31850</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3950</c:v>
+                  <c:v>34000</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4000</c:v>
+                  <c:v>33200</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4200</c:v>
+                  <c:v>34400</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4200</c:v>
+                  <c:v>37000</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4400</c:v>
+                  <c:v>39350</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4450</c:v>
+                  <c:v>37550</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4450</c:v>
+                  <c:v>39950</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4350</c:v>
+                  <c:v>41200</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4700</c:v>
+                  <c:v>39600</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4900</c:v>
+                  <c:v>43300</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4950</c:v>
+                  <c:v>44450</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4950</c:v>
+                  <c:v>43300</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5350</c:v>
+                  <c:v>44950</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5500</c:v>
+                  <c:v>47100</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5350</c:v>
+                  <c:v>48250</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5350</c:v>
+                  <c:v>49800</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5650</c:v>
+                  <c:v>48050</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5400</c:v>
+                  <c:v>52050</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5800</c:v>
+                  <c:v>53900</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5800</c:v>
+                  <c:v>53550</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7800</c:v>
+                  <c:v>57650</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>6300</c:v>
+                  <c:v>56900</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6250</c:v>
+                  <c:v>58850</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6300</c:v>
+                  <c:v>57100</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6600</c:v>
+                  <c:v>58000</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6650</c:v>
+                  <c:v>62000</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6500</c:v>
+                  <c:v>61850</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>6600</c:v>
+                  <c:v>63650</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>7100</c:v>
+                  <c:v>65300</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7050</c:v>
+                  <c:v>69550</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7050</c:v>
+                  <c:v>65850</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7350</c:v>
+                  <c:v>70400</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7350</c:v>
+                  <c:v>69250</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>7200</c:v>
+                  <c:v>72150</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7650</c:v>
+                  <c:v>78750</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>7850</c:v>
+                  <c:v>75450</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7800</c:v>
+                  <c:v>77400</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7800</c:v>
+                  <c:v>80700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -797,7 +895,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$1:$CV$1</c:f>
+              <c:f>Hoja1!$B$1:$CW$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1106,309 +1204,309 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$A$3:$CV$3</c:f>
+              <c:f>Hoja1!$B$3:$CW$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>850</c:v>
+                  <c:v>1650</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1150</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1550</c:v>
+                  <c:v>2650</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2050</c:v>
+                  <c:v>3450</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2400</c:v>
+                  <c:v>4100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2850</c:v>
+                  <c:v>4850</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3200</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3650</c:v>
+                  <c:v>6900</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4100</c:v>
+                  <c:v>7850</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4500</c:v>
+                  <c:v>8550</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5100</c:v>
+                  <c:v>10350</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5750</c:v>
+                  <c:v>10350</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6350</c:v>
+                  <c:v>12150</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7000</c:v>
+                  <c:v>13000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7550</c:v>
+                  <c:v>17150</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8100</c:v>
+                  <c:v>16300</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8750</c:v>
+                  <c:v>20650</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9250</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17400</c:v>
+                  <c:v>24450</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11100</c:v>
+                  <c:v>24200</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11800</c:v>
+                  <c:v>28900</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11750</c:v>
+                  <c:v>29300</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12900</c:v>
+                  <c:v>32050</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13550</c:v>
+                  <c:v>34950</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14100</c:v>
+                  <c:v>37900</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15050</c:v>
+                  <c:v>37200</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16250</c:v>
+                  <c:v>41200</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>16650</c:v>
+                  <c:v>45950</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>18450</c:v>
+                  <c:v>46850</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>19150</c:v>
+                  <c:v>53900</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>19850</c:v>
+                  <c:v>51650</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>20900</c:v>
+                  <c:v>71750</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>22200</c:v>
+                  <c:v>59800</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>23000</c:v>
+                  <c:v>59850</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>23950</c:v>
+                  <c:v>62500</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>25700</c:v>
+                  <c:v>67450</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>27650</c:v>
+                  <c:v>71150</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>27450</c:v>
+                  <c:v>77050</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>29100</c:v>
+                  <c:v>78300</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>30050</c:v>
+                  <c:v>79550</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>31800</c:v>
+                  <c:v>88100</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>32850</c:v>
+                  <c:v>89750</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>35400</c:v>
+                  <c:v>96800</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>35450</c:v>
+                  <c:v>100750</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>38250</c:v>
+                  <c:v>101900</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>38050</c:v>
+                  <c:v>107050</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>39350</c:v>
+                  <c:v>117500</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>41250</c:v>
+                  <c:v>119850</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42650</c:v>
+                  <c:v>118850</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>44400</c:v>
+                  <c:v>126300</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>44350</c:v>
+                  <c:v>126300</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>47050</c:v>
+                  <c:v>134950</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>48850</c:v>
+                  <c:v>133200</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>50500</c:v>
+                  <c:v>138150</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>52500</c:v>
+                  <c:v>141750</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>52950</c:v>
+                  <c:v>148800</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>54750</c:v>
+                  <c:v>155600</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>56700</c:v>
+                  <c:v>157150</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>59300</c:v>
+                  <c:v>168550</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>60050</c:v>
+                  <c:v>169550</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>61700</c:v>
+                  <c:v>170250</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65650</c:v>
+                  <c:v>176200</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>68450</c:v>
+                  <c:v>187250</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>66350</c:v>
+                  <c:v>196750</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>69900</c:v>
+                  <c:v>191250</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>70250</c:v>
+                  <c:v>193100</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>72900</c:v>
+                  <c:v>202150</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>84050</c:v>
+                  <c:v>226600</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>77550</c:v>
+                  <c:v>209700</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>79150</c:v>
+                  <c:v>214750</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>80900</c:v>
+                  <c:v>230750</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>84950</c:v>
+                  <c:v>228250</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>85950</c:v>
+                  <c:v>223050</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>87750</c:v>
+                  <c:v>235900</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>92550</c:v>
+                  <c:v>241500</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>91550</c:v>
+                  <c:v>249000</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>93800</c:v>
+                  <c:v>243650</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>94150</c:v>
+                  <c:v>260900</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>99100</c:v>
+                  <c:v>257250</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>99150</c:v>
+                  <c:v>269900</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>103450</c:v>
+                  <c:v>272100</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>104050</c:v>
+                  <c:v>284100</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>107300</c:v>
+                  <c:v>285600</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>110450</c:v>
+                  <c:v>326550</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>111500</c:v>
+                  <c:v>306100</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>113400</c:v>
+                  <c:v>292700</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>117550</c:v>
+                  <c:v>302750</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>118450</c:v>
+                  <c:v>315350</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>124600</c:v>
+                  <c:v>319850</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>125000</c:v>
+                  <c:v>335050</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>126150</c:v>
+                  <c:v>340200</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>130550</c:v>
+                  <c:v>344950</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>133500</c:v>
+                  <c:v>360850</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>135600</c:v>
+                  <c:v>349300</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>139400</c:v>
+                  <c:v>448550</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>140400</c:v>
+                  <c:v>362350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1451,7 +1549,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$1:$CV$1</c:f>
+              <c:f>Hoja1!$B$1:$CW$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1760,309 +1858,309 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$A$4:$CV$4</c:f>
+              <c:f>Hoja1!$B$4:$CW$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>450</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>700</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800</c:v>
+                  <c:v>2150</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1150</c:v>
+                  <c:v>2850</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1600</c:v>
+                  <c:v>3350</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1800</c:v>
+                  <c:v>3900</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2350</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2600</c:v>
+                  <c:v>6200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2900</c:v>
+                  <c:v>7550</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3350</c:v>
+                  <c:v>8950</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3900</c:v>
+                  <c:v>9800</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4600</c:v>
+                  <c:v>11600</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5000</c:v>
+                  <c:v>12800</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5550</c:v>
+                  <c:v>15600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6150</c:v>
+                  <c:v>18200</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6350</c:v>
+                  <c:v>19250</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7150</c:v>
+                  <c:v>20400</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7700</c:v>
+                  <c:v>20050</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8450</c:v>
+                  <c:v>24300</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9100</c:v>
+                  <c:v>27200</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9800</c:v>
+                  <c:v>29200</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10200</c:v>
+                  <c:v>30900</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10750</c:v>
+                  <c:v>32250</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6300</c:v>
+                  <c:v>36250</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6500</c:v>
+                  <c:v>39150</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6400</c:v>
+                  <c:v>42350</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6750</c:v>
+                  <c:v>48350</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7050</c:v>
+                  <c:v>45700</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8200</c:v>
+                  <c:v>48650</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7500</c:v>
+                  <c:v>54900</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8300</c:v>
+                  <c:v>57350</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10150</c:v>
+                  <c:v>60650</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10200</c:v>
+                  <c:v>61800</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10950</c:v>
+                  <c:v>65600</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10450</c:v>
+                  <c:v>72950</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11600</c:v>
+                  <c:v>70700</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12100</c:v>
+                  <c:v>75950</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>13300</c:v>
+                  <c:v>80200</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>14250</c:v>
+                  <c:v>89200</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>13600</c:v>
+                  <c:v>93100</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>15350</c:v>
+                  <c:v>91650</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>15550</c:v>
+                  <c:v>94950</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>16800</c:v>
+                  <c:v>103550</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>17450</c:v>
+                  <c:v>101650</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>16900</c:v>
+                  <c:v>154050</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>17750</c:v>
+                  <c:v>113750</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>20250</c:v>
+                  <c:v>116500</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>19700</c:v>
+                  <c:v>125550</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20050</c:v>
+                  <c:v>137450</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>22250</c:v>
+                  <c:v>139100</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>22850</c:v>
+                  <c:v>137450</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>21350</c:v>
+                  <c:v>145550</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>22400</c:v>
+                  <c:v>147950</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>24800</c:v>
+                  <c:v>158450</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>24500</c:v>
+                  <c:v>167550</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>25900</c:v>
+                  <c:v>172350</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>25950</c:v>
+                  <c:v>168450</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>26200</c:v>
+                  <c:v>181050</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>29300</c:v>
+                  <c:v>188650</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>28450</c:v>
+                  <c:v>211450</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>30550</c:v>
+                  <c:v>193350</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>29900</c:v>
+                  <c:v>197550</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>30350</c:v>
+                  <c:v>203250</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>33250</c:v>
+                  <c:v>234600</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>36100</c:v>
+                  <c:v>215400</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>35350</c:v>
+                  <c:v>215300</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>37650</c:v>
+                  <c:v>232000</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>33850</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>35650</c:v>
+                  <c:v>247200</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>38300</c:v>
+                  <c:v>246200</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>40450</c:v>
+                  <c:v>260050</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>41000</c:v>
+                  <c:v>265450</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>44700</c:v>
+                  <c:v>275000</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>44100</c:v>
+                  <c:v>278450</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42700</c:v>
+                  <c:v>379850</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>44450</c:v>
+                  <c:v>298350</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>50350</c:v>
+                  <c:v>300400</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>47700</c:v>
+                  <c:v>309300</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>47150</c:v>
+                  <c:v>311500</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>47850</c:v>
+                  <c:v>342150</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>46800</c:v>
+                  <c:v>348550</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>52950</c:v>
+                  <c:v>330150</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>53800</c:v>
+                  <c:v>333950</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>53200</c:v>
+                  <c:v>364450</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>54550</c:v>
+                  <c:v>371400</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>57700</c:v>
+                  <c:v>381150</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>57050</c:v>
+                  <c:v>428400</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>63450</c:v>
+                  <c:v>397700</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>59700</c:v>
+                  <c:v>418700</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>61250</c:v>
+                  <c:v>397750</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>64500</c:v>
+                  <c:v>424900</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>65300</c:v>
+                  <c:v>451850</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>61800</c:v>
+                  <c:v>416650</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>75500</c:v>
+                  <c:v>428750</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>68750</c:v>
+                  <c:v>439750</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>104850</c:v>
+                  <c:v>446950</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>67900</c:v>
+                  <c:v>467900</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>72550</c:v>
+                  <c:v>460350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2103,7 +2201,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$1:$CV$1</c:f>
+              <c:f>Hoja1!$B$1:$CW$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -2412,309 +2510,309 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$A$5:$CV$5</c:f>
+              <c:f>Hoja1!$B$5:$CW$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>700</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>1250</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1300</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1550</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2050</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2450</c:v>
+                  <c:v>3650</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2850</c:v>
+                  <c:v>4400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3450</c:v>
+                  <c:v>4900</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3800</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4350</c:v>
+                  <c:v>6350</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4850</c:v>
+                  <c:v>7300</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5450</c:v>
+                  <c:v>8050</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5900</c:v>
+                  <c:v>10450</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6800</c:v>
+                  <c:v>9850</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7700</c:v>
+                  <c:v>11100</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8250</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9000</c:v>
+                  <c:v>16700</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9500</c:v>
+                  <c:v>14550</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10250</c:v>
+                  <c:v>14150</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11100</c:v>
+                  <c:v>16800</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11950</c:v>
+                  <c:v>17250</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12800</c:v>
+                  <c:v>18100</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13850</c:v>
+                  <c:v>20850</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>15700</c:v>
+                  <c:v>20900</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>15400</c:v>
+                  <c:v>22300</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>16500</c:v>
+                  <c:v>23500</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>17400</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>18950</c:v>
+                  <c:v>25850</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19950</c:v>
+                  <c:v>28450</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>20850</c:v>
+                  <c:v>30150</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>22450</c:v>
+                  <c:v>31100</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>23750</c:v>
+                  <c:v>33050</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>24700</c:v>
+                  <c:v>34650</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>25950</c:v>
+                  <c:v>36150</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>27500</c:v>
+                  <c:v>37000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>29200</c:v>
+                  <c:v>39700</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>30200</c:v>
+                  <c:v>40800</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>31750</c:v>
+                  <c:v>41800</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>33250</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>34400</c:v>
+                  <c:v>46300</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>35950</c:v>
+                  <c:v>52900</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>37850</c:v>
+                  <c:v>50650</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41600</c:v>
+                  <c:v>50950</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>40700</c:v>
+                  <c:v>55950</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42800</c:v>
+                  <c:v>57650</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>45700</c:v>
+                  <c:v>59050</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>47450</c:v>
+                  <c:v>62300</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>47600</c:v>
+                  <c:v>64300</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>49750</c:v>
+                  <c:v>63200</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>51250</c:v>
+                  <c:v>66950</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53700</c:v>
+                  <c:v>67700</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>56800</c:v>
+                  <c:v>71350</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>57350</c:v>
+                  <c:v>74000</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>58650</c:v>
+                  <c:v>74450</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>62450</c:v>
+                  <c:v>78900</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>62950</c:v>
+                  <c:v>79700</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>65950</c:v>
+                  <c:v>83500</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>71700</c:v>
+                  <c:v>86450</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>71850</c:v>
+                  <c:v>85800</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>72350</c:v>
+                  <c:v>94200</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>75450</c:v>
+                  <c:v>91350</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>77150</c:v>
+                  <c:v>96550</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>80000</c:v>
+                  <c:v>97650</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>79800</c:v>
+                  <c:v>102800</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>84050</c:v>
+                  <c:v>103650</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>85650</c:v>
+                  <c:v>103550</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>88800</c:v>
+                  <c:v>114300</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>89300</c:v>
+                  <c:v>113000</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>95000</c:v>
+                  <c:v>119250</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>94050</c:v>
+                  <c:v>121500</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>99000</c:v>
+                  <c:v>123650</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>99450</c:v>
+                  <c:v>123000</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>102950</c:v>
+                  <c:v>124000</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>105550</c:v>
+                  <c:v>130500</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>108050</c:v>
+                  <c:v>131000</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>111350</c:v>
+                  <c:v>136250</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>115950</c:v>
+                  <c:v>145150</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>115450</c:v>
+                  <c:v>145900</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>120250</c:v>
+                  <c:v>146300</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>121500</c:v>
+                  <c:v>143400</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>125950</c:v>
+                  <c:v>150950</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>128500</c:v>
+                  <c:v>153600</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>129950</c:v>
+                  <c:v>154900</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>132100</c:v>
+                  <c:v>162500</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>136900</c:v>
+                  <c:v>165250</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>138200</c:v>
+                  <c:v>172150</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>143200</c:v>
+                  <c:v>170000</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>144700</c:v>
+                  <c:v>183100</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>149150</c:v>
+                  <c:v>192450</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>166000</c:v>
+                  <c:v>183500</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>157050</c:v>
+                  <c:v>188700</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>156550</c:v>
+                  <c:v>201900</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>161550</c:v>
+                  <c:v>193500</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>163300</c:v>
+                  <c:v>194200</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>168750</c:v>
+                  <c:v>249950</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>169850</c:v>
+                  <c:v>198500</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>176000</c:v>
+                  <c:v>204800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2755,7 +2853,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$1:$CV$1</c:f>
+              <c:f>Hoja1!$B$1:$CW$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -3064,7 +3162,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$A$6:$CV$6</c:f>
+              <c:f>Hoja1!$B$6:$CW$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -3072,301 +3170,301 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>350</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>400</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>450</c:v>
+                  <c:v>1150</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>450</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>600</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>700</c:v>
+                  <c:v>1850</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>850</c:v>
+                  <c:v>1950</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>850</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>850</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>650</c:v>
+                  <c:v>3050</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>700</c:v>
+                  <c:v>2950</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>750</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>750</c:v>
+                  <c:v>3650</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>900</c:v>
+                  <c:v>4100</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>900</c:v>
+                  <c:v>4200</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1050</c:v>
+                  <c:v>4900</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1000</c:v>
+                  <c:v>5150</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1250</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1050</c:v>
+                  <c:v>6050</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1050</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1050</c:v>
+                  <c:v>7550</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1150</c:v>
+                  <c:v>8200</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1200</c:v>
+                  <c:v>7700</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1300</c:v>
+                  <c:v>8050</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1300</c:v>
+                  <c:v>8600</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1250</c:v>
+                  <c:v>9300</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1550</c:v>
+                  <c:v>10750</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1600</c:v>
+                  <c:v>10200</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1650</c:v>
+                  <c:v>10750</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1750</c:v>
+                  <c:v>11150</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1700</c:v>
+                  <c:v>12150</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1800</c:v>
+                  <c:v>11750</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2000</c:v>
+                  <c:v>13450</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2050</c:v>
+                  <c:v>14050</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2000</c:v>
+                  <c:v>14250</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2050</c:v>
+                  <c:v>14700</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2150</c:v>
+                  <c:v>15500</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2050</c:v>
+                  <c:v>16050</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2500</c:v>
+                  <c:v>16450</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2350</c:v>
+                  <c:v>15750</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2500</c:v>
+                  <c:v>17550</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2600</c:v>
+                  <c:v>18200</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2850</c:v>
+                  <c:v>20800</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2800</c:v>
+                  <c:v>21850</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2600</c:v>
+                  <c:v>20650</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3050</c:v>
+                  <c:v>19750</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3250</c:v>
+                  <c:v>21900</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3050</c:v>
+                  <c:v>22550</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3350</c:v>
+                  <c:v>24200</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3400</c:v>
+                  <c:v>25550</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3600</c:v>
+                  <c:v>25750</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3650</c:v>
+                  <c:v>25400</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3750</c:v>
+                  <c:v>34750</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3700</c:v>
+                  <c:v>28400</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3850</c:v>
+                  <c:v>29050</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3900</c:v>
+                  <c:v>30250</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3950</c:v>
+                  <c:v>30350</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4000</c:v>
+                  <c:v>31150</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4250</c:v>
+                  <c:v>33050</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4300</c:v>
+                  <c:v>35300</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4300</c:v>
+                  <c:v>34900</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4400</c:v>
+                  <c:v>33900</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4600</c:v>
+                  <c:v>36800</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4650</c:v>
+                  <c:v>38600</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4700</c:v>
+                  <c:v>40400</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4750</c:v>
+                  <c:v>38500</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4850</c:v>
+                  <c:v>40750</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5000</c:v>
+                  <c:v>40100</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5700</c:v>
+                  <c:v>41650</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5700</c:v>
+                  <c:v>42950</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5350</c:v>
+                  <c:v>42600</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5550</c:v>
+                  <c:v>43650</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6050</c:v>
+                  <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5300</c:v>
+                  <c:v>48200</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6000</c:v>
+                  <c:v>47000</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5800</c:v>
+                  <c:v>49900</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6100</c:v>
+                  <c:v>52750</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>6550</c:v>
+                  <c:v>53900</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6450</c:v>
+                  <c:v>57900</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6250</c:v>
+                  <c:v>54750</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6600</c:v>
+                  <c:v>55850</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6850</c:v>
+                  <c:v>56850</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6900</c:v>
+                  <c:v>55650</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>6900</c:v>
+                  <c:v>55850</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>7350</c:v>
+                  <c:v>61000</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7100</c:v>
+                  <c:v>58700</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7500</c:v>
+                  <c:v>61550</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7700</c:v>
+                  <c:v>65350</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7800</c:v>
+                  <c:v>64400</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>7550</c:v>
+                  <c:v>63450</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7650</c:v>
+                  <c:v>81750</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>8250</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>8100</c:v>
+                  <c:v>67900</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8200</c:v>
+                  <c:v>70850</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3409,7 +3507,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$1:$CV$1</c:f>
+              <c:f>Hoja1!$B$1:$CW$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -3718,306 +3816,306 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$A$7:$CV$7</c:f>
+              <c:f>Hoja1!$B$7:$CW$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>250</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800</c:v>
+                  <c:v>1150</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>900</c:v>
+                  <c:v>1350</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1450</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1500</c:v>
+                  <c:v>2050</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1650</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1900</c:v>
+                  <c:v>2350</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2050</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2650</c:v>
+                  <c:v>3050</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2750</c:v>
+                  <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2950</c:v>
+                  <c:v>3350</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2600</c:v>
+                  <c:v>3550</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2800</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3250</c:v>
+                  <c:v>4150</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3650</c:v>
+                  <c:v>4400</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3800</c:v>
+                  <c:v>4700</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3450</c:v>
+                  <c:v>5200</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3600</c:v>
+                  <c:v>5550</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3650</c:v>
+                  <c:v>5750</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4050</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4300</c:v>
+                  <c:v>5850</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4650</c:v>
+                  <c:v>6600</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5100</c:v>
+                  <c:v>6350</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4750</c:v>
+                  <c:v>6800</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4700</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5400</c:v>
+                  <c:v>7050</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5250</c:v>
+                  <c:v>7450</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5300</c:v>
+                  <c:v>7850</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5350</c:v>
+                  <c:v>7850</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5500</c:v>
+                  <c:v>8250</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6150</c:v>
+                  <c:v>8400</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5800</c:v>
+                  <c:v>9200</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5650</c:v>
+                  <c:v>9100</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5500</c:v>
+                  <c:v>9450</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6050</c:v>
+                  <c:v>9750</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6100</c:v>
+                  <c:v>9950</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6250</c:v>
+                  <c:v>10850</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6200</c:v>
+                  <c:v>10900</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6700</c:v>
+                  <c:v>10950</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6700</c:v>
+                  <c:v>11750</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6900</c:v>
+                  <c:v>11450</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6950</c:v>
+                  <c:v>13000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7050</c:v>
+                  <c:v>12050</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7150</c:v>
+                  <c:v>12250</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7700</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7550</c:v>
+                  <c:v>13150</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7650</c:v>
+                  <c:v>13750</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7900</c:v>
+                  <c:v>15750</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7950</c:v>
+                  <c:v>14050</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8100</c:v>
+                  <c:v>14700</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8300</c:v>
+                  <c:v>14550</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8550</c:v>
+                  <c:v>14650</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8500</c:v>
+                  <c:v>14950</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8750</c:v>
+                  <c:v>15150</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9100</c:v>
+                  <c:v>15650</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10000</c:v>
+                  <c:v>16150</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9550</c:v>
+                  <c:v>16300</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>9400</c:v>
+                  <c:v>16600</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9600</c:v>
+                  <c:v>16650</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10650</c:v>
+                  <c:v>17250</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>11550</c:v>
+                  <c:v>17200</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>10600</c:v>
+                  <c:v>17450</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>10700</c:v>
+                  <c:v>18100</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>10600</c:v>
+                  <c:v>19050</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>10900</c:v>
+                  <c:v>18700</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>11000</c:v>
+                  <c:v>18850</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>10950</c:v>
+                  <c:v>19500</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>11350</c:v>
+                  <c:v>19700</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>11550</c:v>
+                  <c:v>20550</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>11950</c:v>
+                  <c:v>20200</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>11950</c:v>
+                  <c:v>21250</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>11700</c:v>
+                  <c:v>21000</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12350</c:v>
+                  <c:v>21350</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>11950</c:v>
+                  <c:v>20900</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>12850</c:v>
+                  <c:v>21950</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>12250</c:v>
+                  <c:v>22050</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12750</c:v>
+                  <c:v>23100</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>12900</c:v>
+                  <c:v>23900</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>13000</c:v>
+                  <c:v>23000</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>13200</c:v>
+                  <c:v>23200</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>13700</c:v>
+                  <c:v>23050</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>13550</c:v>
+                  <c:v>25400</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>14150</c:v>
+                  <c:v>26550</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>14150</c:v>
+                  <c:v>24550</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>14000</c:v>
+                  <c:v>25150</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>14300</c:v>
+                  <c:v>25050</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>14200</c:v>
+                  <c:v>26450</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>14950</c:v>
+                  <c:v>26250</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>14900</c:v>
+                  <c:v>25950</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>14950</c:v>
+                  <c:v>26700</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>15100</c:v>
+                  <c:v>28150</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>15200</c:v>
+                  <c:v>27200</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>15450</c:v>
+                  <c:v>27450</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>15700</c:v>
+                  <c:v>28800</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>15850</c:v>
+                  <c:v>31300</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>15950</c:v>
@@ -4063,7 +4161,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$1:$CV$1</c:f>
+              <c:f>Hoja1!$B$1:$CW$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -4372,309 +4470,309 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$A$8:$CV$8</c:f>
+              <c:f>Hoja1!$B$8:$CW$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>700</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>950</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1250</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1550</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>2150</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3550</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>3700</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="24">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4450</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4850</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5150</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5050</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5450</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>5700</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="34">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>6050</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="36">
                   <c:v>6350</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>6700</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="37">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6450</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>7350</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>11050</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9250</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9750</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>10400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10950</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>15800</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="42">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7550</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7850</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8650</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9450</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9850</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9850</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10350</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10600</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10600</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10850</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11550</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12050</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12650</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>13100</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13300</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>13250</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>13800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>14650</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>14700</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14950</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>15550</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>17050</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>18850</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16250</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>18400</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>16800</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>18450</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>17600</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>17900</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>18650</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>19150</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>17850</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>19300</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20350</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>21900</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>25200</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>24300</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>29450</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>29400</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>31300</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>32300</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>32800</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>33800</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>36900</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40700</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41500</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>40600</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>47350</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>47900</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>48500</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>49650</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>54500</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>52150</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>54100</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>58650</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>58550</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>61350</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>62750</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>66450</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>67350</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>72000</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>71450</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>74450</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>77700</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>78800</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>84950</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>84600</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>86300</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>90450</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>92400</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>96400</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>98750</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>104050</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>79950</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>80900</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>83950</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>85150</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>87650</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>93200</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>95950</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>94700</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>102300</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>107200</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>104850</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>108250</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>98800</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>96000</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>97050</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>103500</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>95100</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>97200</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>99450</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>100850</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>106700</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>112000</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>108300</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>114000</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>115900</c:v>
-                </c:pt>
                 <c:pt idx="94">
-                  <c:v>115950</c:v>
+                  <c:v>20400</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>121550</c:v>
+                  <c:v>19200</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>123400</c:v>
+                  <c:v>20500</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>127600</c:v>
+                  <c:v>20300</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>125750</c:v>
+                  <c:v>27000</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>131400</c:v>
+                  <c:v>22650</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4719,7 +4817,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$1:$CV$1</c:f>
+              <c:f>Hoja1!$B$1:$CW$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -5028,309 +5126,309 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$A$9:$CV$9</c:f>
+              <c:f>Hoja1!$B$9:$CW$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>850</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>2650</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2200</c:v>
+                  <c:v>2550</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3750</c:v>
+                  <c:v>4050</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4350</c:v>
+                  <c:v>5900</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5400</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6150</c:v>
+                  <c:v>14100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6450</c:v>
+                  <c:v>16700</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8300</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8400</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8800</c:v>
+                  <c:v>10900</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14600</c:v>
+                  <c:v>17900</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11300</c:v>
+                  <c:v>12250</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10250</c:v>
+                  <c:v>12750</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26050</c:v>
+                  <c:v>18450</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15050</c:v>
+                  <c:v>19550</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11550</c:v>
+                  <c:v>29250</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14100</c:v>
+                  <c:v>15700</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18900</c:v>
+                  <c:v>20800</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13200</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21250</c:v>
+                  <c:v>16750</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14150</c:v>
+                  <c:v>23950</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14750</c:v>
+                  <c:v>20300</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20800</c:v>
+                  <c:v>28150</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>15800</c:v>
+                  <c:v>19850</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22150</c:v>
+                  <c:v>21750</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17200</c:v>
+                  <c:v>28750</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29950</c:v>
+                  <c:v>22650</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>18150</c:v>
+                  <c:v>47950</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>18650</c:v>
+                  <c:v>46500</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>19850</c:v>
+                  <c:v>30700</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>26950</c:v>
+                  <c:v>45700</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>21650</c:v>
+                  <c:v>28450</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>22200</c:v>
+                  <c:v>29750</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>23800</c:v>
+                  <c:v>29050</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>31450</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>24600</c:v>
+                  <c:v>38150</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>33950</c:v>
+                  <c:v>37050</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>30150</c:v>
+                  <c:v>57250</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>26700</c:v>
+                  <c:v>42050</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>27300</c:v>
+                  <c:v>31900</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>27350</c:v>
+                  <c:v>52550</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>53250</c:v>
+                  <c:v>44650</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>36250</c:v>
+                  <c:v>57400</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>38800</c:v>
+                  <c:v>34400</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>30500</c:v>
+                  <c:v>47250</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>31150</c:v>
+                  <c:v>35950</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>47550</c:v>
+                  <c:v>45900</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>31050</c:v>
+                  <c:v>36800</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>49800</c:v>
+                  <c:v>50750</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>34000</c:v>
+                  <c:v>74550</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>49750</c:v>
+                  <c:v>45350</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>52300</c:v>
+                  <c:v>49400</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>48400</c:v>
+                  <c:v>67000</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>40400</c:v>
+                  <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>39900</c:v>
+                  <c:v>60950</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>51700</c:v>
+                  <c:v>45750</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>41450</c:v>
+                  <c:v>55050</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42900</c:v>
+                  <c:v>64100</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>45600</c:v>
+                  <c:v>81700</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>47250</c:v>
+                  <c:v>55400</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>56000</c:v>
+                  <c:v>79300</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>40300</c:v>
+                  <c:v>110950</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>74200</c:v>
+                  <c:v>76450</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>47100</c:v>
+                  <c:v>66700</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42250</c:v>
+                  <c:v>54550</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>64000</c:v>
+                  <c:v>66050</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>49200</c:v>
+                  <c:v>69900</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>91350</c:v>
+                  <c:v>138350</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>63150</c:v>
+                  <c:v>101550</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>49950</c:v>
+                  <c:v>80850</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>51950</c:v>
+                  <c:v>62100</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>69900</c:v>
+                  <c:v>82550</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>50450</c:v>
+                  <c:v>102650</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>105150</c:v>
+                  <c:v>73950</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>48300</c:v>
+                  <c:v>85400</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>61450</c:v>
+                  <c:v>65650</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>80350</c:v>
+                  <c:v>78300</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>61150</c:v>
+                  <c:v>80400</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>65550</c:v>
+                  <c:v>66750</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>73900</c:v>
+                  <c:v>78400</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>63350</c:v>
+                  <c:v>87700</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>57650</c:v>
+                  <c:v>82750</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>58050</c:v>
+                  <c:v>84900</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>93000</c:v>
+                  <c:v>132050</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>79000</c:v>
+                  <c:v>95000</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>81150</c:v>
+                  <c:v>85400</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>88350</c:v>
+                  <c:v>104550</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>67500</c:v>
+                  <c:v>118100</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>63950</c:v>
+                  <c:v>78900</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>74800</c:v>
+                  <c:v>80600</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>55650</c:v>
+                  <c:v>116300</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>80900</c:v>
+                  <c:v>105000</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>57550</c:v>
+                  <c:v>102300</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>65400</c:v>
+                  <c:v>103450</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>79800</c:v>
+                  <c:v>106950</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>90200</c:v>
+                  <c:v>106600</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>80400</c:v>
+                  <c:v>102000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6302,13 +6400,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>742949</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>657224</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -6656,2730 +6754,2757 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3504667B-E13A-40EB-9265-F67A72628833}">
-  <dimension ref="A1:CV9"/>
+  <dimension ref="A1:CW9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V39" sqref="V39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:100" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:101" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11">
         <v>10</v>
       </c>
-      <c r="B1" s="1">
+      <c r="C1" s="11">
         <v>20</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="11">
         <v>30</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="11">
         <v>40</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="11">
         <v>50</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="11">
         <v>60</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="11">
         <v>70</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="11">
         <v>80</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="11">
         <v>90</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="11">
         <v>100</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="11">
         <v>110</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="11">
         <v>120</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="11">
         <v>130</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="11">
         <v>140</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="11">
         <v>150</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="11">
         <v>160</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="11">
         <v>170</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="11">
         <v>180</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="11">
         <v>190</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="11">
         <v>200</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="11">
         <v>210</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="11">
         <v>220</v>
       </c>
-      <c r="W1" s="1">
+      <c r="X1" s="11">
         <v>230</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y1" s="11">
         <v>240</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Z1" s="11">
         <v>250</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AA1" s="11">
         <v>260</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="11">
         <v>270</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AC1" s="11">
         <v>280</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AD1" s="11">
         <v>290</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="11">
         <v>300</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AF1" s="11">
         <v>310</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AG1" s="11">
         <v>320</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AH1" s="11">
         <v>330</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AI1" s="11">
         <v>340</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AJ1" s="11">
         <v>350</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AK1" s="11">
         <v>360</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AL1" s="11">
         <v>370</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AM1" s="11">
         <v>380</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AN1" s="11">
         <v>390</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AO1" s="11">
         <v>400</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AP1" s="11">
         <v>410</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AQ1" s="11">
         <v>420</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AR1" s="11">
         <v>430</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AS1" s="11">
         <v>440</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AT1" s="11">
         <v>450</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AU1" s="11">
         <v>460</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AV1" s="11">
         <v>470</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AW1" s="11">
         <v>480</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AX1" s="11">
         <v>490</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AY1" s="11">
         <v>500</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AZ1" s="11">
         <v>510</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="BA1" s="11">
         <v>520</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="BB1" s="11">
         <v>530</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="BC1" s="11">
         <v>540</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="BD1" s="11">
         <v>550</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BE1" s="11">
         <v>560</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="BF1" s="11">
         <v>570</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="BG1" s="11">
         <v>580</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="BH1" s="11">
         <v>590</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="BI1" s="11">
         <v>600</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="BJ1" s="11">
         <v>610</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="BK1" s="11">
         <v>620</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="BL1" s="11">
         <v>630</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="BM1" s="11">
         <v>640</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="BN1" s="11">
         <v>650</v>
       </c>
-      <c r="BN1" s="1">
+      <c r="BO1" s="11">
         <v>660</v>
       </c>
-      <c r="BO1" s="1">
+      <c r="BP1" s="11">
         <v>670</v>
       </c>
-      <c r="BP1" s="1">
+      <c r="BQ1" s="11">
         <v>680</v>
       </c>
-      <c r="BQ1" s="1">
+      <c r="BR1" s="11">
         <v>690</v>
       </c>
-      <c r="BR1" s="1">
+      <c r="BS1" s="11">
         <v>700</v>
       </c>
-      <c r="BS1" s="1">
+      <c r="BT1" s="11">
         <v>710</v>
       </c>
-      <c r="BT1" s="1">
+      <c r="BU1" s="11">
         <v>720</v>
       </c>
-      <c r="BU1" s="1">
+      <c r="BV1" s="11">
         <v>730</v>
       </c>
-      <c r="BV1" s="1">
+      <c r="BW1" s="11">
         <v>740</v>
       </c>
-      <c r="BW1" s="1">
+      <c r="BX1" s="11">
         <v>750</v>
       </c>
-      <c r="BX1" s="1">
+      <c r="BY1" s="11">
         <v>760</v>
       </c>
-      <c r="BY1" s="1">
+      <c r="BZ1" s="11">
         <v>770</v>
       </c>
-      <c r="BZ1" s="1">
+      <c r="CA1" s="11">
         <v>780</v>
       </c>
-      <c r="CA1" s="1">
+      <c r="CB1" s="11">
         <v>790</v>
       </c>
-      <c r="CB1" s="1">
+      <c r="CC1" s="11">
         <v>800</v>
       </c>
-      <c r="CC1" s="1">
+      <c r="CD1" s="11">
         <v>810</v>
       </c>
-      <c r="CD1" s="1">
+      <c r="CE1" s="11">
         <v>820</v>
       </c>
-      <c r="CE1" s="1">
+      <c r="CF1" s="11">
         <v>830</v>
       </c>
-      <c r="CF1" s="1">
+      <c r="CG1" s="11">
         <v>840</v>
       </c>
-      <c r="CG1" s="1">
+      <c r="CH1" s="11">
         <v>850</v>
       </c>
-      <c r="CH1" s="1">
+      <c r="CI1" s="11">
         <v>860</v>
       </c>
-      <c r="CI1" s="1">
+      <c r="CJ1" s="11">
         <v>870</v>
       </c>
-      <c r="CJ1" s="1">
+      <c r="CK1" s="11">
         <v>880</v>
       </c>
-      <c r="CK1" s="1">
+      <c r="CL1" s="11">
         <v>890</v>
       </c>
-      <c r="CL1" s="1">
+      <c r="CM1" s="11">
         <v>900</v>
       </c>
-      <c r="CM1" s="1">
+      <c r="CN1" s="11">
         <v>910</v>
       </c>
-      <c r="CN1" s="1">
+      <c r="CO1" s="11">
         <v>920</v>
       </c>
-      <c r="CO1" s="1">
+      <c r="CP1" s="11">
         <v>930</v>
       </c>
-      <c r="CP1" s="1">
+      <c r="CQ1" s="11">
         <v>940</v>
       </c>
-      <c r="CQ1" s="1">
+      <c r="CR1" s="11">
         <v>950</v>
       </c>
-      <c r="CR1" s="1">
+      <c r="CS1" s="11">
         <v>960</v>
       </c>
-      <c r="CS1" s="1">
+      <c r="CT1" s="11">
         <v>970</v>
       </c>
-      <c r="CT1" s="1">
+      <c r="CU1" s="11">
         <v>980</v>
       </c>
-      <c r="CU1" s="1">
+      <c r="CV1" s="11">
         <v>990</v>
       </c>
-      <c r="CV1" s="1">
+      <c r="CW1" s="11">
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:101" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>200</v>
+      </c>
+      <c r="C2" s="1">
+        <v>200</v>
+      </c>
+      <c r="D2" s="1">
+        <v>250</v>
+      </c>
+      <c r="E2" s="1">
+        <v>350</v>
+      </c>
+      <c r="F2" s="1">
+        <v>450</v>
+      </c>
+      <c r="G2" s="1">
+        <v>550</v>
+      </c>
+      <c r="H2" s="1">
+        <v>600</v>
+      </c>
+      <c r="I2" s="1">
+        <v>850</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1050</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1550</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1650</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1800</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1850</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2350</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2400</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>3150</v>
+      </c>
+      <c r="R2" s="1">
+        <v>2850</v>
+      </c>
+      <c r="S2" s="1">
+        <v>3800</v>
+      </c>
+      <c r="T2" s="1">
+        <v>3900</v>
+      </c>
+      <c r="U2" s="1">
+        <v>4300</v>
+      </c>
+      <c r="V2" s="1">
+        <v>4550</v>
+      </c>
+      <c r="W2" s="1">
+        <v>4850</v>
+      </c>
+      <c r="X2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>6150</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>6550</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>6700</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>7100</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>7850</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>8450</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>8500</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>9100</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>9350</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>10300</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>10600</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>11100</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>11050</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>12500</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>12700</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>14150</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>14750</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>14600</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>15800</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>17100</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>17600</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>17800</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>17950</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>19100</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>20400</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>29150</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>21900</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>22000</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>21800</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>23550</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>24050</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>24950</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>25650</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>28000</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>29550</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>28650</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>29700</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>30600</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>31850</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>34000</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>33200</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>34400</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>37000</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>39350</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>37550</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>39950</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>41200</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>39600</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>43300</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>44450</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>43300</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>44950</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>47100</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>48250</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>49800</v>
+      </c>
+      <c r="CB2" s="1">
+        <v>48050</v>
+      </c>
+      <c r="CC2" s="1">
+        <v>52050</v>
+      </c>
+      <c r="CD2" s="1">
+        <v>53900</v>
+      </c>
+      <c r="CE2" s="1">
+        <v>53550</v>
+      </c>
+      <c r="CF2" s="1">
+        <v>57650</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>56900</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>58850</v>
+      </c>
+      <c r="CI2" s="1">
+        <v>57100</v>
+      </c>
+      <c r="CJ2" s="1">
+        <v>58000</v>
+      </c>
+      <c r="CK2" s="1">
+        <v>62000</v>
+      </c>
+      <c r="CL2" s="1">
+        <v>61850</v>
+      </c>
+      <c r="CM2" s="1">
+        <v>63650</v>
+      </c>
+      <c r="CN2" s="1">
+        <v>65300</v>
+      </c>
+      <c r="CO2" s="1">
+        <v>69550</v>
+      </c>
+      <c r="CP2" s="1">
+        <v>65850</v>
+      </c>
+      <c r="CQ2" s="1">
+        <v>70400</v>
+      </c>
+      <c r="CR2" s="1">
+        <v>69250</v>
+      </c>
+      <c r="CS2" s="1">
+        <v>72150</v>
+      </c>
+      <c r="CT2" s="1">
+        <v>78750</v>
+      </c>
+      <c r="CU2" s="1">
+        <v>75450</v>
+      </c>
+      <c r="CV2" s="1">
+        <v>77400</v>
+      </c>
+      <c r="CW2" s="1">
+        <v>80700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>150</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2">
+        <v>650</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1650</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1900</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2650</v>
+      </c>
+      <c r="I3" s="2">
+        <v>3450</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4100</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4850</v>
+      </c>
+      <c r="L3" s="2">
+        <v>5500</v>
+      </c>
+      <c r="M3" s="2">
+        <v>6900</v>
+      </c>
+      <c r="N3" s="2">
+        <v>7850</v>
+      </c>
+      <c r="O3" s="2">
+        <v>8550</v>
+      </c>
+      <c r="P3" s="2">
+        <v>10350</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>10350</v>
+      </c>
+      <c r="R3" s="2">
+        <v>12150</v>
+      </c>
+      <c r="S3" s="2">
+        <v>13000</v>
+      </c>
+      <c r="T3" s="2">
+        <v>17150</v>
+      </c>
+      <c r="U3" s="2">
+        <v>16300</v>
+      </c>
+      <c r="V3" s="2">
+        <v>20650</v>
+      </c>
+      <c r="W3" s="2">
+        <v>20000</v>
+      </c>
+      <c r="X3" s="2">
+        <v>24450</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>24200</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>28900</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>29300</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>32050</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>34950</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>37900</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>37200</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>41200</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>45950</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>46850</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>53900</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>51650</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>71750</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>59800</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>59850</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>62500</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>67450</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>71150</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>77050</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>78300</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>79550</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>88100</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>89750</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>96800</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>100750</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>101900</v>
+      </c>
+      <c r="AY3" s="2">
+        <v>107050</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>117500</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>119850</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>118850</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>126300</v>
+      </c>
+      <c r="BD3" s="2">
+        <v>126300</v>
+      </c>
+      <c r="BE3" s="2">
+        <v>134950</v>
+      </c>
+      <c r="BF3" s="2">
+        <v>133200</v>
+      </c>
+      <c r="BG3" s="2">
+        <v>138150</v>
+      </c>
+      <c r="BH3" s="2">
+        <v>141750</v>
+      </c>
+      <c r="BI3" s="2">
+        <v>148800</v>
+      </c>
+      <c r="BJ3" s="2">
+        <v>155600</v>
+      </c>
+      <c r="BK3" s="2">
+        <v>157150</v>
+      </c>
+      <c r="BL3" s="2">
+        <v>168550</v>
+      </c>
+      <c r="BM3" s="2">
+        <v>169550</v>
+      </c>
+      <c r="BN3" s="2">
+        <v>170250</v>
+      </c>
+      <c r="BO3" s="2">
+        <v>176200</v>
+      </c>
+      <c r="BP3" s="2">
+        <v>187250</v>
+      </c>
+      <c r="BQ3" s="2">
+        <v>196750</v>
+      </c>
+      <c r="BR3" s="2">
+        <v>191250</v>
+      </c>
+      <c r="BS3" s="2">
+        <v>193100</v>
+      </c>
+      <c r="BT3" s="2">
+        <v>202150</v>
+      </c>
+      <c r="BU3" s="2">
+        <v>226600</v>
+      </c>
+      <c r="BV3" s="2">
+        <v>209700</v>
+      </c>
+      <c r="BW3" s="2">
+        <v>214750</v>
+      </c>
+      <c r="BX3" s="2">
+        <v>230750</v>
+      </c>
+      <c r="BY3" s="2">
+        <v>228250</v>
+      </c>
+      <c r="BZ3" s="2">
+        <v>223050</v>
+      </c>
+      <c r="CA3" s="2">
+        <v>235900</v>
+      </c>
+      <c r="CB3" s="2">
+        <v>241500</v>
+      </c>
+      <c r="CC3" s="2">
+        <v>249000</v>
+      </c>
+      <c r="CD3" s="2">
+        <v>243650</v>
+      </c>
+      <c r="CE3" s="2">
+        <v>260900</v>
+      </c>
+      <c r="CF3" s="2">
+        <v>257250</v>
+      </c>
+      <c r="CG3" s="2">
+        <v>269900</v>
+      </c>
+      <c r="CH3" s="2">
+        <v>272100</v>
+      </c>
+      <c r="CI3" s="2">
+        <v>284100</v>
+      </c>
+      <c r="CJ3" s="2">
+        <v>285600</v>
+      </c>
+      <c r="CK3" s="2">
+        <v>326550</v>
+      </c>
+      <c r="CL3" s="2">
+        <v>306100</v>
+      </c>
+      <c r="CM3" s="2">
+        <v>292700</v>
+      </c>
+      <c r="CN3" s="2">
+        <v>302750</v>
+      </c>
+      <c r="CO3" s="2">
+        <v>315350</v>
+      </c>
+      <c r="CP3" s="2">
+        <v>319850</v>
+      </c>
+      <c r="CQ3" s="2">
+        <v>335050</v>
+      </c>
+      <c r="CR3" s="2">
+        <v>340200</v>
+      </c>
+      <c r="CS3" s="2">
+        <v>344950</v>
+      </c>
+      <c r="CT3" s="2">
+        <v>360850</v>
+      </c>
+      <c r="CU3" s="2">
+        <v>349300</v>
+      </c>
+      <c r="CV3" s="2">
+        <v>448550</v>
+      </c>
+      <c r="CW3" s="2">
+        <v>362350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>200</v>
+      </c>
+      <c r="C4" s="3">
+        <v>350</v>
+      </c>
+      <c r="D4" s="3">
+        <v>750</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2150</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2850</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3350</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K4" s="3">
+        <v>6200</v>
+      </c>
+      <c r="L4" s="3">
+        <v>7550</v>
+      </c>
+      <c r="M4" s="3">
+        <v>8950</v>
+      </c>
+      <c r="N4" s="3">
+        <v>9800</v>
+      </c>
+      <c r="O4" s="3">
+        <v>11600</v>
+      </c>
+      <c r="P4" s="3">
+        <v>12800</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>15600</v>
+      </c>
+      <c r="R4" s="3">
+        <v>18200</v>
+      </c>
+      <c r="S4" s="3">
+        <v>19250</v>
+      </c>
+      <c r="T4" s="3">
+        <v>20400</v>
+      </c>
+      <c r="U4" s="3">
+        <v>20050</v>
+      </c>
+      <c r="V4" s="3">
+        <v>24300</v>
+      </c>
+      <c r="W4" s="3">
+        <v>27200</v>
+      </c>
+      <c r="X4" s="3">
+        <v>29200</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>30900</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>32250</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>36250</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>39150</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>42350</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>48350</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>45700</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>48650</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>54900</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>57350</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>60650</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>61800</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>65600</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>72950</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>70700</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>75950</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>80200</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>89200</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>93100</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>91650</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>94950</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>103550</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>101650</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>154050</v>
+      </c>
+      <c r="AW4" s="3">
+        <v>113750</v>
+      </c>
+      <c r="AX4" s="3">
+        <v>116500</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>125550</v>
+      </c>
+      <c r="AZ4" s="3">
+        <v>137450</v>
+      </c>
+      <c r="BA4" s="3">
+        <v>139100</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>137450</v>
+      </c>
+      <c r="BC4" s="3">
+        <v>145550</v>
+      </c>
+      <c r="BD4" s="3">
+        <v>147950</v>
+      </c>
+      <c r="BE4" s="3">
+        <v>158450</v>
+      </c>
+      <c r="BF4" s="3">
+        <v>167550</v>
+      </c>
+      <c r="BG4" s="3">
+        <v>172350</v>
+      </c>
+      <c r="BH4" s="3">
+        <v>168450</v>
+      </c>
+      <c r="BI4" s="3">
+        <v>181050</v>
+      </c>
+      <c r="BJ4" s="3">
+        <v>188650</v>
+      </c>
+      <c r="BK4" s="3">
+        <v>211450</v>
+      </c>
+      <c r="BL4" s="3">
+        <v>193350</v>
+      </c>
+      <c r="BM4" s="3">
+        <v>197550</v>
+      </c>
+      <c r="BN4" s="3">
+        <v>203250</v>
+      </c>
+      <c r="BO4" s="3">
+        <v>234600</v>
+      </c>
+      <c r="BP4" s="3">
+        <v>215400</v>
+      </c>
+      <c r="BQ4" s="3">
+        <v>215300</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>232000</v>
+      </c>
+      <c r="BS4" s="3">
+        <v>250000</v>
+      </c>
+      <c r="BT4" s="3">
+        <v>247200</v>
+      </c>
+      <c r="BU4" s="3">
+        <v>246200</v>
+      </c>
+      <c r="BV4" s="3">
+        <v>260050</v>
+      </c>
+      <c r="BW4" s="3">
+        <v>265450</v>
+      </c>
+      <c r="BX4" s="3">
+        <v>275000</v>
+      </c>
+      <c r="BY4" s="3">
+        <v>278450</v>
+      </c>
+      <c r="BZ4" s="3">
+        <v>379850</v>
+      </c>
+      <c r="CA4" s="3">
+        <v>298350</v>
+      </c>
+      <c r="CB4" s="3">
+        <v>300400</v>
+      </c>
+      <c r="CC4" s="3">
+        <v>309300</v>
+      </c>
+      <c r="CD4" s="3">
+        <v>311500</v>
+      </c>
+      <c r="CE4" s="3">
+        <v>342150</v>
+      </c>
+      <c r="CF4" s="3">
+        <v>348550</v>
+      </c>
+      <c r="CG4" s="3">
+        <v>330150</v>
+      </c>
+      <c r="CH4" s="3">
+        <v>333950</v>
+      </c>
+      <c r="CI4" s="3">
+        <v>364450</v>
+      </c>
+      <c r="CJ4" s="3">
+        <v>371400</v>
+      </c>
+      <c r="CK4" s="3">
+        <v>381150</v>
+      </c>
+      <c r="CL4" s="3">
+        <v>428400</v>
+      </c>
+      <c r="CM4" s="3">
+        <v>397700</v>
+      </c>
+      <c r="CN4" s="3">
+        <v>418700</v>
+      </c>
+      <c r="CO4" s="3">
+        <v>397750</v>
+      </c>
+      <c r="CP4" s="3">
+        <v>424900</v>
+      </c>
+      <c r="CQ4" s="3">
+        <v>451850</v>
+      </c>
+      <c r="CR4" s="3">
+        <v>416650</v>
+      </c>
+      <c r="CS4" s="3">
+        <v>428750</v>
+      </c>
+      <c r="CT4" s="3">
+        <v>439750</v>
+      </c>
+      <c r="CU4" s="3">
+        <v>446950</v>
+      </c>
+      <c r="CV4" s="3">
+        <v>467900</v>
+      </c>
+      <c r="CW4" s="3">
+        <v>460350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>150</v>
+      </c>
+      <c r="C5" s="4">
+        <v>400</v>
+      </c>
+      <c r="D5" s="4">
+        <v>600</v>
+      </c>
+      <c r="E5" s="4">
+        <v>850</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1250</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1450</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2250</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2700</v>
+      </c>
+      <c r="J5" s="4">
+        <v>3650</v>
+      </c>
+      <c r="K5" s="4">
+        <v>4400</v>
+      </c>
+      <c r="L5" s="4">
+        <v>4900</v>
+      </c>
+      <c r="M5" s="4">
+        <v>5600</v>
+      </c>
+      <c r="N5" s="4">
+        <v>6350</v>
+      </c>
+      <c r="O5" s="4">
+        <v>7300</v>
+      </c>
+      <c r="P5" s="4">
+        <v>8050</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>10450</v>
+      </c>
+      <c r="R5" s="4">
+        <v>9850</v>
+      </c>
+      <c r="S5" s="4">
+        <v>11100</v>
+      </c>
+      <c r="T5" s="4">
+        <v>12000</v>
+      </c>
+      <c r="U5" s="4">
+        <v>16700</v>
+      </c>
+      <c r="V5" s="4">
+        <v>14550</v>
+      </c>
+      <c r="W5" s="4">
+        <v>14150</v>
+      </c>
+      <c r="X5" s="4">
+        <v>16800</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>17250</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>18100</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>20850</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>20900</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>22300</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>23500</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>25000</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>25850</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>28450</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>30150</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>31100</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>33050</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>34650</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>36150</v>
+      </c>
+      <c r="AM5" s="4">
+        <v>37000</v>
+      </c>
+      <c r="AN5" s="4">
+        <v>39700</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>40800</v>
+      </c>
+      <c r="AP5" s="4">
+        <v>41800</v>
+      </c>
+      <c r="AQ5" s="4">
+        <v>44000</v>
+      </c>
+      <c r="AR5" s="4">
+        <v>46300</v>
+      </c>
+      <c r="AS5" s="4">
+        <v>52900</v>
+      </c>
+      <c r="AT5" s="4">
+        <v>50650</v>
+      </c>
+      <c r="AU5" s="4">
+        <v>50950</v>
+      </c>
+      <c r="AV5" s="4">
+        <v>55950</v>
+      </c>
+      <c r="AW5" s="4">
+        <v>57650</v>
+      </c>
+      <c r="AX5" s="4">
+        <v>59050</v>
+      </c>
+      <c r="AY5" s="4">
+        <v>62300</v>
+      </c>
+      <c r="AZ5" s="4">
+        <v>64300</v>
+      </c>
+      <c r="BA5" s="4">
+        <v>63200</v>
+      </c>
+      <c r="BB5" s="4">
+        <v>66950</v>
+      </c>
+      <c r="BC5" s="4">
+        <v>67700</v>
+      </c>
+      <c r="BD5" s="4">
+        <v>71350</v>
+      </c>
+      <c r="BE5" s="4">
+        <v>74000</v>
+      </c>
+      <c r="BF5" s="4">
+        <v>74450</v>
+      </c>
+      <c r="BG5" s="4">
+        <v>78900</v>
+      </c>
+      <c r="BH5" s="4">
+        <v>79700</v>
+      </c>
+      <c r="BI5" s="4">
+        <v>83500</v>
+      </c>
+      <c r="BJ5" s="4">
+        <v>86450</v>
+      </c>
+      <c r="BK5" s="4">
+        <v>85800</v>
+      </c>
+      <c r="BL5" s="4">
+        <v>94200</v>
+      </c>
+      <c r="BM5" s="4">
+        <v>91350</v>
+      </c>
+      <c r="BN5" s="4">
+        <v>96550</v>
+      </c>
+      <c r="BO5" s="4">
+        <v>97650</v>
+      </c>
+      <c r="BP5" s="4">
+        <v>102800</v>
+      </c>
+      <c r="BQ5" s="4">
+        <v>103650</v>
+      </c>
+      <c r="BR5" s="4">
+        <v>103550</v>
+      </c>
+      <c r="BS5" s="4">
+        <v>114300</v>
+      </c>
+      <c r="BT5" s="4">
+        <v>113000</v>
+      </c>
+      <c r="BU5" s="4">
+        <v>119250</v>
+      </c>
+      <c r="BV5" s="4">
+        <v>121500</v>
+      </c>
+      <c r="BW5" s="4">
+        <v>123650</v>
+      </c>
+      <c r="BX5" s="4">
+        <v>123000</v>
+      </c>
+      <c r="BY5" s="4">
+        <v>124000</v>
+      </c>
+      <c r="BZ5" s="4">
+        <v>130500</v>
+      </c>
+      <c r="CA5" s="4">
+        <v>131000</v>
+      </c>
+      <c r="CB5" s="4">
+        <v>136250</v>
+      </c>
+      <c r="CC5" s="4">
+        <v>145150</v>
+      </c>
+      <c r="CD5" s="4">
+        <v>145900</v>
+      </c>
+      <c r="CE5" s="4">
+        <v>146300</v>
+      </c>
+      <c r="CF5" s="4">
+        <v>143400</v>
+      </c>
+      <c r="CG5" s="4">
+        <v>150950</v>
+      </c>
+      <c r="CH5" s="4">
+        <v>153600</v>
+      </c>
+      <c r="CI5" s="4">
+        <v>154900</v>
+      </c>
+      <c r="CJ5" s="4">
+        <v>162500</v>
+      </c>
+      <c r="CK5" s="4">
+        <v>165250</v>
+      </c>
+      <c r="CL5" s="4">
+        <v>172150</v>
+      </c>
+      <c r="CM5" s="4">
+        <v>170000</v>
+      </c>
+      <c r="CN5" s="4">
+        <v>183100</v>
+      </c>
+      <c r="CO5" s="4">
+        <v>192450</v>
+      </c>
+      <c r="CP5" s="4">
+        <v>183500</v>
+      </c>
+      <c r="CQ5" s="4">
+        <v>188700</v>
+      </c>
+      <c r="CR5" s="4">
+        <v>201900</v>
+      </c>
+      <c r="CS5" s="4">
+        <v>193500</v>
+      </c>
+      <c r="CT5" s="4">
+        <v>194200</v>
+      </c>
+      <c r="CU5" s="4">
+        <v>249950</v>
+      </c>
+      <c r="CV5" s="4">
+        <v>198500</v>
+      </c>
+      <c r="CW5" s="4">
+        <v>204800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
         <v>50</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
+      <c r="C6" s="5">
         <v>200</v>
       </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
-      <c r="E2">
+      <c r="D6" s="5">
+        <v>250</v>
+      </c>
+      <c r="E6" s="5">
+        <v>400</v>
+      </c>
+      <c r="F6" s="5">
+        <v>350</v>
+      </c>
+      <c r="G6" s="5">
+        <v>600</v>
+      </c>
+      <c r="H6" s="5">
+        <v>750</v>
+      </c>
+      <c r="I6" s="5">
+        <v>900</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1400</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1700</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1850</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1950</v>
+      </c>
+      <c r="O6" s="5">
+        <v>2250</v>
+      </c>
+      <c r="P6" s="5">
+        <v>2600</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>3050</v>
+      </c>
+      <c r="R6" s="5">
+        <v>2950</v>
+      </c>
+      <c r="S6" s="5">
+        <v>3600</v>
+      </c>
+      <c r="T6" s="5">
+        <v>3650</v>
+      </c>
+      <c r="U6" s="5">
+        <v>4100</v>
+      </c>
+      <c r="V6" s="5">
+        <v>4200</v>
+      </c>
+      <c r="W6" s="5">
+        <v>4900</v>
+      </c>
+      <c r="X6" s="5">
+        <v>5150</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>5700</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>6050</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>6250</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>7550</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>8200</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>7700</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>8050</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>8600</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>9300</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>10750</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>10200</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>10750</v>
+      </c>
+      <c r="AK6" s="5">
+        <v>11150</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>12150</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>11750</v>
+      </c>
+      <c r="AN6" s="5">
+        <v>13450</v>
+      </c>
+      <c r="AO6" s="5">
+        <v>14050</v>
+      </c>
+      <c r="AP6" s="5">
+        <v>14250</v>
+      </c>
+      <c r="AQ6" s="5">
+        <v>14700</v>
+      </c>
+      <c r="AR6" s="5">
+        <v>15500</v>
+      </c>
+      <c r="AS6" s="5">
+        <v>16050</v>
+      </c>
+      <c r="AT6" s="5">
+        <v>16450</v>
+      </c>
+      <c r="AU6" s="5">
+        <v>15750</v>
+      </c>
+      <c r="AV6" s="5">
+        <v>17550</v>
+      </c>
+      <c r="AW6" s="5">
+        <v>18200</v>
+      </c>
+      <c r="AX6" s="5">
+        <v>20800</v>
+      </c>
+      <c r="AY6" s="5">
+        <v>21850</v>
+      </c>
+      <c r="AZ6" s="5">
+        <v>20650</v>
+      </c>
+      <c r="BA6" s="5">
+        <v>19750</v>
+      </c>
+      <c r="BB6" s="5">
+        <v>21900</v>
+      </c>
+      <c r="BC6" s="5">
+        <v>22550</v>
+      </c>
+      <c r="BD6" s="5">
+        <v>24200</v>
+      </c>
+      <c r="BE6" s="5">
+        <v>25550</v>
+      </c>
+      <c r="BF6" s="5">
+        <v>25750</v>
+      </c>
+      <c r="BG6" s="5">
+        <v>25400</v>
+      </c>
+      <c r="BH6" s="5">
+        <v>34750</v>
+      </c>
+      <c r="BI6" s="5">
+        <v>28400</v>
+      </c>
+      <c r="BJ6" s="5">
+        <v>29050</v>
+      </c>
+      <c r="BK6" s="5">
+        <v>30250</v>
+      </c>
+      <c r="BL6" s="5">
+        <v>30350</v>
+      </c>
+      <c r="BM6" s="5">
+        <v>31150</v>
+      </c>
+      <c r="BN6" s="5">
+        <v>33050</v>
+      </c>
+      <c r="BO6" s="5">
+        <v>35300</v>
+      </c>
+      <c r="BP6" s="5">
+        <v>34900</v>
+      </c>
+      <c r="BQ6" s="5">
+        <v>33900</v>
+      </c>
+      <c r="BR6" s="5">
+        <v>36800</v>
+      </c>
+      <c r="BS6" s="5">
+        <v>38600</v>
+      </c>
+      <c r="BT6" s="5">
+        <v>40400</v>
+      </c>
+      <c r="BU6" s="5">
+        <v>38500</v>
+      </c>
+      <c r="BV6" s="5">
+        <v>40750</v>
+      </c>
+      <c r="BW6" s="5">
+        <v>40100</v>
+      </c>
+      <c r="BX6" s="5">
+        <v>41650</v>
+      </c>
+      <c r="BY6" s="5">
+        <v>42950</v>
+      </c>
+      <c r="BZ6" s="5">
+        <v>42600</v>
+      </c>
+      <c r="CA6" s="5">
+        <v>43650</v>
+      </c>
+      <c r="CB6" s="5">
+        <v>45000</v>
+      </c>
+      <c r="CC6" s="5">
+        <v>48200</v>
+      </c>
+      <c r="CD6" s="5">
+        <v>47000</v>
+      </c>
+      <c r="CE6" s="5">
+        <v>49900</v>
+      </c>
+      <c r="CF6" s="5">
+        <v>52750</v>
+      </c>
+      <c r="CG6" s="5">
+        <v>53900</v>
+      </c>
+      <c r="CH6" s="5">
+        <v>57900</v>
+      </c>
+      <c r="CI6" s="5">
+        <v>54750</v>
+      </c>
+      <c r="CJ6" s="5">
+        <v>55850</v>
+      </c>
+      <c r="CK6" s="5">
+        <v>56850</v>
+      </c>
+      <c r="CL6" s="5">
+        <v>55650</v>
+      </c>
+      <c r="CM6" s="5">
+        <v>55850</v>
+      </c>
+      <c r="CN6" s="5">
+        <v>61000</v>
+      </c>
+      <c r="CO6" s="5">
+        <v>58700</v>
+      </c>
+      <c r="CP6" s="5">
+        <v>61550</v>
+      </c>
+      <c r="CQ6" s="5">
+        <v>65350</v>
+      </c>
+      <c r="CR6" s="5">
+        <v>64400</v>
+      </c>
+      <c r="CS6" s="5">
+        <v>63450</v>
+      </c>
+      <c r="CT6" s="5">
+        <v>81750</v>
+      </c>
+      <c r="CU6" s="5">
+        <v>70000</v>
+      </c>
+      <c r="CV6" s="5">
+        <v>67900</v>
+      </c>
+      <c r="CW6" s="5">
+        <v>70850</v>
+      </c>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
         <v>300</v>
       </c>
-      <c r="F2">
-        <v>200</v>
-      </c>
-      <c r="G2">
+      <c r="C7" s="6">
+        <v>450</v>
+      </c>
+      <c r="D7" s="6">
+        <v>700</v>
+      </c>
+      <c r="E7" s="6">
+        <v>900</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1150</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1350</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1500</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1700</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2050</v>
+      </c>
+      <c r="K7" s="6">
+        <v>2200</v>
+      </c>
+      <c r="L7" s="6">
+        <v>2350</v>
+      </c>
+      <c r="M7" s="6">
+        <v>2700</v>
+      </c>
+      <c r="N7" s="6">
+        <v>3050</v>
+      </c>
+      <c r="O7" s="6">
+        <v>3200</v>
+      </c>
+      <c r="P7" s="6">
+        <v>3350</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>3550</v>
+      </c>
+      <c r="R7" s="6">
+        <v>3750</v>
+      </c>
+      <c r="S7" s="6">
+        <v>4150</v>
+      </c>
+      <c r="T7" s="6">
+        <v>4400</v>
+      </c>
+      <c r="U7" s="6">
+        <v>4700</v>
+      </c>
+      <c r="V7" s="6">
+        <v>5200</v>
+      </c>
+      <c r="W7" s="6">
+        <v>5550</v>
+      </c>
+      <c r="X7" s="6">
+        <v>5750</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>5500</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>5850</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>6600</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>6350</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>6800</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>7000</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>7050</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>7450</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>7850</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>7850</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>8250</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>8400</v>
+      </c>
+      <c r="AK7" s="6">
+        <v>9200</v>
+      </c>
+      <c r="AL7" s="6">
+        <v>9100</v>
+      </c>
+      <c r="AM7" s="6">
+        <v>9450</v>
+      </c>
+      <c r="AN7" s="6">
+        <v>9750</v>
+      </c>
+      <c r="AO7" s="6">
+        <v>9950</v>
+      </c>
+      <c r="AP7" s="6">
+        <v>10850</v>
+      </c>
+      <c r="AQ7" s="6">
+        <v>10900</v>
+      </c>
+      <c r="AR7" s="6">
+        <v>10950</v>
+      </c>
+      <c r="AS7" s="6">
+        <v>11750</v>
+      </c>
+      <c r="AT7" s="6">
+        <v>11450</v>
+      </c>
+      <c r="AU7" s="6">
+        <v>13000</v>
+      </c>
+      <c r="AV7" s="6">
+        <v>12050</v>
+      </c>
+      <c r="AW7" s="6">
+        <v>12250</v>
+      </c>
+      <c r="AX7" s="6">
+        <v>12400</v>
+      </c>
+      <c r="AY7" s="6">
+        <v>13150</v>
+      </c>
+      <c r="AZ7" s="6">
+        <v>13750</v>
+      </c>
+      <c r="BA7" s="6">
+        <v>15750</v>
+      </c>
+      <c r="BB7" s="6">
+        <v>14050</v>
+      </c>
+      <c r="BC7" s="6">
+        <v>14700</v>
+      </c>
+      <c r="BD7" s="6">
+        <v>14550</v>
+      </c>
+      <c r="BE7" s="6">
+        <v>14650</v>
+      </c>
+      <c r="BF7" s="6">
+        <v>14950</v>
+      </c>
+      <c r="BG7" s="6">
+        <v>15150</v>
+      </c>
+      <c r="BH7" s="6">
+        <v>15650</v>
+      </c>
+      <c r="BI7" s="6">
+        <v>16150</v>
+      </c>
+      <c r="BJ7" s="6">
+        <v>16300</v>
+      </c>
+      <c r="BK7" s="6">
+        <v>16600</v>
+      </c>
+      <c r="BL7" s="6">
+        <v>16650</v>
+      </c>
+      <c r="BM7" s="6">
+        <v>17250</v>
+      </c>
+      <c r="BN7" s="6">
+        <v>17200</v>
+      </c>
+      <c r="BO7" s="6">
+        <v>17450</v>
+      </c>
+      <c r="BP7" s="6">
+        <v>18100</v>
+      </c>
+      <c r="BQ7" s="6">
+        <v>19050</v>
+      </c>
+      <c r="BR7" s="6">
+        <v>18700</v>
+      </c>
+      <c r="BS7" s="6">
+        <v>18850</v>
+      </c>
+      <c r="BT7" s="6">
+        <v>19500</v>
+      </c>
+      <c r="BU7" s="6">
+        <v>19700</v>
+      </c>
+      <c r="BV7" s="6">
+        <v>20550</v>
+      </c>
+      <c r="BW7" s="6">
+        <v>20200</v>
+      </c>
+      <c r="BX7" s="6">
+        <v>21250</v>
+      </c>
+      <c r="BY7" s="6">
+        <v>21000</v>
+      </c>
+      <c r="BZ7" s="6">
+        <v>21350</v>
+      </c>
+      <c r="CA7" s="6">
+        <v>20900</v>
+      </c>
+      <c r="CB7" s="6">
+        <v>21950</v>
+      </c>
+      <c r="CC7" s="6">
+        <v>22050</v>
+      </c>
+      <c r="CD7" s="6">
+        <v>23100</v>
+      </c>
+      <c r="CE7" s="6">
+        <v>23900</v>
+      </c>
+      <c r="CF7" s="6">
+        <v>23000</v>
+      </c>
+      <c r="CG7" s="6">
+        <v>23200</v>
+      </c>
+      <c r="CH7" s="6">
+        <v>23050</v>
+      </c>
+      <c r="CI7" s="6">
+        <v>25400</v>
+      </c>
+      <c r="CJ7" s="6">
+        <v>26550</v>
+      </c>
+      <c r="CK7" s="6">
+        <v>24550</v>
+      </c>
+      <c r="CL7" s="6">
+        <v>25150</v>
+      </c>
+      <c r="CM7" s="6">
+        <v>25050</v>
+      </c>
+      <c r="CN7" s="6">
+        <v>26450</v>
+      </c>
+      <c r="CO7" s="6">
+        <v>26250</v>
+      </c>
+      <c r="CP7" s="6">
+        <v>25950</v>
+      </c>
+      <c r="CQ7" s="6">
+        <v>26700</v>
+      </c>
+      <c r="CR7" s="6">
+        <v>28150</v>
+      </c>
+      <c r="CS7" s="6">
+        <v>27200</v>
+      </c>
+      <c r="CT7" s="6">
+        <v>27450</v>
+      </c>
+      <c r="CU7" s="6">
+        <v>28800</v>
+      </c>
+      <c r="CV7" s="6">
+        <v>31300</v>
+      </c>
+      <c r="CW7">
+        <v>15950</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>150</v>
+      </c>
+      <c r="C8" s="7">
         <v>250</v>
       </c>
-      <c r="H2">
+      <c r="D8" s="7">
         <v>350</v>
       </c>
-      <c r="I2">
-        <v>400</v>
-      </c>
-      <c r="J2">
-        <v>450</v>
-      </c>
-      <c r="K2">
-        <v>550</v>
-      </c>
-      <c r="L2">
+      <c r="E8" s="7">
         <v>500</v>
       </c>
-      <c r="M2">
+      <c r="F8" s="7">
         <v>650</v>
       </c>
-      <c r="N2">
-        <v>650</v>
-      </c>
-      <c r="O2">
-        <v>650</v>
-      </c>
-      <c r="P2">
+      <c r="G8" s="7">
         <v>700</v>
       </c>
-      <c r="Q2">
-        <v>700</v>
-      </c>
-      <c r="R2">
-        <v>750</v>
-      </c>
-      <c r="S2">
-        <v>800</v>
-      </c>
-      <c r="T2">
+      <c r="H8" s="7">
+        <v>900</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1050</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1150</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1300</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1550</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2000</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1850</v>
+      </c>
+      <c r="O8" s="7">
+        <v>2300</v>
+      </c>
+      <c r="P8" s="7">
+        <v>2150</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>2450</v>
+      </c>
+      <c r="R8" s="7">
+        <v>2650</v>
+      </c>
+      <c r="S8" s="7">
+        <v>2700</v>
+      </c>
+      <c r="T8" s="7">
+        <v>2700</v>
+      </c>
+      <c r="U8" s="7">
+        <v>3000</v>
+      </c>
+      <c r="V8" s="7">
+        <v>3200</v>
+      </c>
+      <c r="W8" s="7">
+        <v>3300</v>
+      </c>
+      <c r="X8" s="7">
+        <v>3800</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>3700</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>4050</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>3950</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>4450</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>4850</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>5150</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>5050</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>5150</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>5450</v>
+      </c>
+      <c r="AH8" s="7">
+        <v>5300</v>
+      </c>
+      <c r="AI8" s="7">
+        <v>5700</v>
+      </c>
+      <c r="AJ8" s="7">
+        <v>5900</v>
+      </c>
+      <c r="AK8" s="7">
+        <v>6050</v>
+      </c>
+      <c r="AL8" s="7">
+        <v>6350</v>
+      </c>
+      <c r="AM8" s="7">
+        <v>6400</v>
+      </c>
+      <c r="AN8" s="7">
+        <v>6450</v>
+      </c>
+      <c r="AO8" s="7">
+        <v>6800</v>
+      </c>
+      <c r="AP8" s="7">
+        <v>7400</v>
+      </c>
+      <c r="AQ8" s="7">
+        <v>7350</v>
+      </c>
+      <c r="AR8" s="7">
+        <v>8100</v>
+      </c>
+      <c r="AS8" s="7">
+        <v>7600</v>
+      </c>
+      <c r="AT8" s="7">
+        <v>7550</v>
+      </c>
+      <c r="AU8" s="7">
+        <v>7850</v>
+      </c>
+      <c r="AV8" s="7">
+        <v>8500</v>
+      </c>
+      <c r="AW8" s="7">
+        <v>8600</v>
+      </c>
+      <c r="AX8" s="7">
+        <v>8700</v>
+      </c>
+      <c r="AY8" s="7">
+        <v>8650</v>
+      </c>
+      <c r="AZ8" s="7">
+        <v>9500</v>
+      </c>
+      <c r="BA8" s="7">
+        <v>9100</v>
+      </c>
+      <c r="BB8" s="7">
+        <v>9200</v>
+      </c>
+      <c r="BC8" s="7">
+        <v>9450</v>
+      </c>
+      <c r="BD8" s="7">
+        <v>9850</v>
+      </c>
+      <c r="BE8" s="7">
+        <v>9850</v>
+      </c>
+      <c r="BF8" s="7">
+        <v>10100</v>
+      </c>
+      <c r="BG8" s="7">
+        <v>10350</v>
+      </c>
+      <c r="BH8" s="7">
+        <v>10600</v>
+      </c>
+      <c r="BI8" s="7">
+        <v>10600</v>
+      </c>
+      <c r="BJ8" s="7">
+        <v>10850</v>
+      </c>
+      <c r="BK8" s="7">
+        <v>11000</v>
+      </c>
+      <c r="BL8" s="7">
+        <v>11150</v>
+      </c>
+      <c r="BM8" s="7">
+        <v>11400</v>
+      </c>
+      <c r="BN8" s="7">
+        <v>11550</v>
+      </c>
+      <c r="BO8" s="7">
+        <v>12050</v>
+      </c>
+      <c r="BP8" s="7">
+        <v>12100</v>
+      </c>
+      <c r="BQ8" s="7">
+        <v>12600</v>
+      </c>
+      <c r="BR8" s="7">
+        <v>12600</v>
+      </c>
+      <c r="BS8" s="7">
+        <v>12650</v>
+      </c>
+      <c r="BT8" s="7">
+        <v>13100</v>
+      </c>
+      <c r="BU8" s="7">
+        <v>12800</v>
+      </c>
+      <c r="BV8" s="7">
+        <v>13300</v>
+      </c>
+      <c r="BW8" s="7">
+        <v>13250</v>
+      </c>
+      <c r="BX8" s="7">
+        <v>13500</v>
+      </c>
+      <c r="BY8" s="7">
+        <v>13800</v>
+      </c>
+      <c r="BZ8" s="7">
+        <v>14650</v>
+      </c>
+      <c r="CA8" s="7">
+        <v>14400</v>
+      </c>
+      <c r="CB8" s="7">
+        <v>14700</v>
+      </c>
+      <c r="CC8" s="7">
+        <v>14950</v>
+      </c>
+      <c r="CD8" s="7">
+        <v>15550</v>
+      </c>
+      <c r="CE8" s="7">
+        <v>17050</v>
+      </c>
+      <c r="CF8" s="7">
+        <v>18850</v>
+      </c>
+      <c r="CG8" s="7">
+        <v>15500</v>
+      </c>
+      <c r="CH8" s="7">
+        <v>16250</v>
+      </c>
+      <c r="CI8" s="7">
+        <v>18400</v>
+      </c>
+      <c r="CJ8" s="7">
+        <v>16800</v>
+      </c>
+      <c r="CK8" s="7">
+        <v>18450</v>
+      </c>
+      <c r="CL8" s="7">
+        <v>19200</v>
+      </c>
+      <c r="CM8" s="7">
+        <v>17600</v>
+      </c>
+      <c r="CN8" s="7">
+        <v>17900</v>
+      </c>
+      <c r="CO8" s="7">
+        <v>21000</v>
+      </c>
+      <c r="CP8" s="7">
+        <v>18650</v>
+      </c>
+      <c r="CQ8" s="7">
+        <v>19150</v>
+      </c>
+      <c r="CR8" s="7">
+        <v>20400</v>
+      </c>
+      <c r="CS8" s="7">
+        <v>19200</v>
+      </c>
+      <c r="CT8" s="7">
+        <v>20500</v>
+      </c>
+      <c r="CU8" s="7">
+        <v>20300</v>
+      </c>
+      <c r="CV8" s="7">
+        <v>27000</v>
+      </c>
+      <c r="CW8" s="7">
+        <v>22650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
         <v>1000</v>
       </c>
-      <c r="U2">
-        <v>950</v>
-      </c>
-      <c r="V2">
-        <v>1000</v>
-      </c>
-      <c r="W2">
-        <v>1100</v>
-      </c>
-      <c r="X2">
-        <v>1150</v>
-      </c>
-      <c r="Y2">
-        <v>1150</v>
-      </c>
-      <c r="Z2">
-        <v>1250</v>
-      </c>
-      <c r="AA2">
-        <v>1250</v>
-      </c>
-      <c r="AB2">
-        <v>1250</v>
-      </c>
-      <c r="AC2">
-        <v>1350</v>
-      </c>
-      <c r="AD2">
-        <v>1350</v>
-      </c>
-      <c r="AE2">
-        <v>1450</v>
-      </c>
-      <c r="AF2">
-        <v>1500</v>
-      </c>
-      <c r="AG2">
-        <v>1650</v>
-      </c>
-      <c r="AH2">
-        <v>1700</v>
-      </c>
-      <c r="AI2">
-        <v>1650</v>
-      </c>
-      <c r="AJ2">
-        <v>1850</v>
-      </c>
-      <c r="AK2">
-        <v>1900</v>
-      </c>
-      <c r="AL2">
-        <v>1950</v>
-      </c>
-      <c r="AM2">
-        <v>2200</v>
-      </c>
-      <c r="AN2">
-        <v>2300</v>
-      </c>
-      <c r="AO2">
-        <v>2100</v>
-      </c>
-      <c r="AP2">
-        <v>2250</v>
-      </c>
-      <c r="AQ2">
-        <v>2350</v>
-      </c>
-      <c r="AR2">
-        <v>2300</v>
-      </c>
-      <c r="AS2">
-        <v>2600</v>
-      </c>
-      <c r="AT2">
+      <c r="C9" s="8">
+        <v>1300</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2650</v>
+      </c>
+      <c r="E9" s="8">
         <v>2550</v>
       </c>
-      <c r="AU2">
-        <v>2600</v>
-      </c>
-      <c r="AV2">
-        <v>2650</v>
-      </c>
-      <c r="AW2">
-        <v>3000</v>
-      </c>
-      <c r="AX2">
-        <v>2850</v>
-      </c>
-      <c r="AY2">
-        <v>2850</v>
-      </c>
-      <c r="AZ2">
-        <v>3050</v>
-      </c>
-      <c r="BA2">
-        <v>3000</v>
-      </c>
-      <c r="BB2">
-        <v>3300</v>
-      </c>
-      <c r="BC2">
-        <v>3350</v>
-      </c>
-      <c r="BD2">
-        <v>3450</v>
-      </c>
-      <c r="BE2">
-        <v>3550</v>
-      </c>
-      <c r="BF2">
-        <v>3550</v>
-      </c>
-      <c r="BG2">
-        <v>3900</v>
-      </c>
-      <c r="BH2">
-        <v>3700</v>
-      </c>
-      <c r="BI2">
-        <v>3700</v>
-      </c>
-      <c r="BJ2">
-        <v>3900</v>
-      </c>
-      <c r="BK2">
-        <v>3950</v>
-      </c>
-      <c r="BL2">
-        <v>4000</v>
-      </c>
-      <c r="BM2">
-        <v>4200</v>
-      </c>
-      <c r="BN2">
-        <v>4200</v>
-      </c>
-      <c r="BO2">
-        <v>4400</v>
-      </c>
-      <c r="BP2">
-        <v>4450</v>
-      </c>
-      <c r="BQ2">
-        <v>4450</v>
-      </c>
-      <c r="BR2">
-        <v>4350</v>
-      </c>
-      <c r="BS2">
-        <v>4700</v>
-      </c>
-      <c r="BT2">
-        <v>4900</v>
-      </c>
-      <c r="BU2">
-        <v>4950</v>
-      </c>
-      <c r="BV2">
-        <v>4950</v>
-      </c>
-      <c r="BW2">
-        <v>5350</v>
-      </c>
-      <c r="BX2">
-        <v>5500</v>
-      </c>
-      <c r="BY2">
-        <v>5350</v>
-      </c>
-      <c r="BZ2">
-        <v>5350</v>
-      </c>
-      <c r="CA2">
-        <v>5650</v>
-      </c>
-      <c r="CB2">
-        <v>5400</v>
-      </c>
-      <c r="CC2">
-        <v>5800</v>
-      </c>
-      <c r="CD2">
-        <v>5800</v>
-      </c>
-      <c r="CE2">
-        <v>7800</v>
-      </c>
-      <c r="CF2">
-        <v>6300</v>
-      </c>
-      <c r="CG2">
-        <v>6250</v>
-      </c>
-      <c r="CH2">
-        <v>6300</v>
-      </c>
-      <c r="CI2">
-        <v>6600</v>
-      </c>
-      <c r="CJ2">
-        <v>6650</v>
-      </c>
-      <c r="CK2">
-        <v>6500</v>
-      </c>
-      <c r="CL2">
-        <v>6600</v>
-      </c>
-      <c r="CM2">
-        <v>7100</v>
-      </c>
-      <c r="CN2">
-        <v>7050</v>
-      </c>
-      <c r="CO2">
-        <v>7050</v>
-      </c>
-      <c r="CP2">
-        <v>7350</v>
-      </c>
-      <c r="CQ2">
-        <v>7350</v>
-      </c>
-      <c r="CR2">
-        <v>7200</v>
-      </c>
-      <c r="CS2">
-        <v>7650</v>
-      </c>
-      <c r="CT2">
-        <v>7850</v>
-      </c>
-      <c r="CU2">
-        <v>7800</v>
-      </c>
-      <c r="CV2">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3">
-        <v>250</v>
-      </c>
-      <c r="C3">
-        <v>400</v>
-      </c>
-      <c r="D3">
-        <v>600</v>
-      </c>
-      <c r="E3">
-        <v>850</v>
-      </c>
-      <c r="F3">
-        <v>1150</v>
-      </c>
-      <c r="G3">
-        <v>1550</v>
-      </c>
-      <c r="H3">
-        <v>2050</v>
-      </c>
-      <c r="I3">
-        <v>2400</v>
-      </c>
-      <c r="J3">
-        <v>2850</v>
-      </c>
-      <c r="K3">
-        <v>3200</v>
-      </c>
-      <c r="L3">
-        <v>3650</v>
-      </c>
-      <c r="M3">
-        <v>4100</v>
-      </c>
-      <c r="N3">
-        <v>4500</v>
-      </c>
-      <c r="O3">
-        <v>5100</v>
-      </c>
-      <c r="P3">
-        <v>5750</v>
-      </c>
-      <c r="Q3">
-        <v>6350</v>
-      </c>
-      <c r="R3">
-        <v>7000</v>
-      </c>
-      <c r="S3">
-        <v>7550</v>
-      </c>
-      <c r="T3">
+      <c r="F9" s="8">
+        <v>3500</v>
+      </c>
+      <c r="G9" s="8">
+        <v>4050</v>
+      </c>
+      <c r="H9" s="8">
+        <v>5900</v>
+      </c>
+      <c r="I9" s="8">
+        <v>5600</v>
+      </c>
+      <c r="J9" s="8">
+        <v>14100</v>
+      </c>
+      <c r="K9" s="8">
+        <v>16700</v>
+      </c>
+      <c r="L9" s="8">
         <v>8100</v>
       </c>
-      <c r="U3">
-        <v>8750</v>
-      </c>
-      <c r="V3">
-        <v>9250</v>
-      </c>
-      <c r="W3">
-        <v>17400</v>
-      </c>
-      <c r="X3">
-        <v>11100</v>
-      </c>
-      <c r="Y3">
-        <v>11800</v>
-      </c>
-      <c r="Z3">
-        <v>11750</v>
-      </c>
-      <c r="AA3">
-        <v>12900</v>
-      </c>
-      <c r="AB3">
-        <v>13550</v>
-      </c>
-      <c r="AC3">
-        <v>14100</v>
-      </c>
-      <c r="AD3">
-        <v>15050</v>
-      </c>
-      <c r="AE3">
-        <v>16250</v>
-      </c>
-      <c r="AF3">
-        <v>16650</v>
-      </c>
-      <c r="AG3">
+      <c r="M9" s="8">
+        <v>9500</v>
+      </c>
+      <c r="N9" s="8">
+        <v>10900</v>
+      </c>
+      <c r="O9" s="8">
+        <v>17900</v>
+      </c>
+      <c r="P9" s="8">
+        <v>12250</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>12750</v>
+      </c>
+      <c r="R9" s="8">
         <v>18450</v>
       </c>
-      <c r="AH3">
-        <v>19150</v>
-      </c>
-      <c r="AI3">
+      <c r="S9" s="8">
+        <v>19550</v>
+      </c>
+      <c r="T9" s="8">
+        <v>29250</v>
+      </c>
+      <c r="U9" s="8">
+        <v>15700</v>
+      </c>
+      <c r="V9" s="8">
+        <v>20800</v>
+      </c>
+      <c r="W9" s="8">
+        <v>16000</v>
+      </c>
+      <c r="X9" s="8">
+        <v>16750</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>23950</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>20300</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>28150</v>
+      </c>
+      <c r="AB9" s="8">
         <v>19850</v>
       </c>
-      <c r="AJ3">
-        <v>20900</v>
-      </c>
-      <c r="AK3">
-        <v>22200</v>
-      </c>
-      <c r="AL3">
-        <v>23000</v>
-      </c>
-      <c r="AM3">
-        <v>23950</v>
-      </c>
-      <c r="AN3">
-        <v>25700</v>
-      </c>
-      <c r="AO3">
-        <v>27650</v>
-      </c>
-      <c r="AP3">
-        <v>27450</v>
-      </c>
-      <c r="AQ3">
-        <v>29100</v>
-      </c>
-      <c r="AR3">
-        <v>30050</v>
-      </c>
-      <c r="AS3">
-        <v>31800</v>
-      </c>
-      <c r="AT3">
-        <v>32850</v>
-      </c>
-      <c r="AU3">
-        <v>35400</v>
-      </c>
-      <c r="AV3">
-        <v>35450</v>
-      </c>
-      <c r="AW3">
-        <v>38250</v>
-      </c>
-      <c r="AX3">
-        <v>38050</v>
-      </c>
-      <c r="AY3">
-        <v>39350</v>
-      </c>
-      <c r="AZ3">
-        <v>41250</v>
-      </c>
-      <c r="BA3">
-        <v>42650</v>
-      </c>
-      <c r="BB3">
-        <v>44400</v>
-      </c>
-      <c r="BC3">
-        <v>44350</v>
-      </c>
-      <c r="BD3">
-        <v>47050</v>
-      </c>
-      <c r="BE3">
-        <v>48850</v>
-      </c>
-      <c r="BF3">
-        <v>50500</v>
-      </c>
-      <c r="BG3">
-        <v>52500</v>
-      </c>
-      <c r="BH3">
-        <v>52950</v>
-      </c>
-      <c r="BI3">
-        <v>54750</v>
-      </c>
-      <c r="BJ3">
-        <v>56700</v>
-      </c>
-      <c r="BK3">
-        <v>59300</v>
-      </c>
-      <c r="BL3">
-        <v>60050</v>
-      </c>
-      <c r="BM3">
-        <v>61700</v>
-      </c>
-      <c r="BN3">
+      <c r="AC9" s="8">
+        <v>21750</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>28750</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>22650</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>47950</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>46500</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>30700</v>
+      </c>
+      <c r="AI9" s="8">
+        <v>45700</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>28450</v>
+      </c>
+      <c r="AK9" s="8">
+        <v>29750</v>
+      </c>
+      <c r="AL9" s="8">
+        <v>29050</v>
+      </c>
+      <c r="AM9" s="8">
+        <v>36000</v>
+      </c>
+      <c r="AN9" s="8">
+        <v>38150</v>
+      </c>
+      <c r="AO9" s="8">
+        <v>37050</v>
+      </c>
+      <c r="AP9" s="8">
+        <v>57250</v>
+      </c>
+      <c r="AQ9" s="8">
+        <v>42050</v>
+      </c>
+      <c r="AR9" s="8">
+        <v>31900</v>
+      </c>
+      <c r="AS9" s="8">
+        <v>52550</v>
+      </c>
+      <c r="AT9" s="8">
+        <v>44650</v>
+      </c>
+      <c r="AU9" s="8">
+        <v>57400</v>
+      </c>
+      <c r="AV9" s="8">
+        <v>34400</v>
+      </c>
+      <c r="AW9" s="8">
+        <v>47250</v>
+      </c>
+      <c r="AX9" s="8">
+        <v>35950</v>
+      </c>
+      <c r="AY9" s="8">
+        <v>45900</v>
+      </c>
+      <c r="AZ9" s="8">
+        <v>36800</v>
+      </c>
+      <c r="BA9" s="8">
+        <v>50750</v>
+      </c>
+      <c r="BB9" s="8">
+        <v>74550</v>
+      </c>
+      <c r="BC9" s="8">
+        <v>45350</v>
+      </c>
+      <c r="BD9" s="8">
+        <v>49400</v>
+      </c>
+      <c r="BE9" s="8">
+        <v>67000</v>
+      </c>
+      <c r="BF9" s="8">
+        <v>44050</v>
+      </c>
+      <c r="BG9" s="8">
+        <v>60950</v>
+      </c>
+      <c r="BH9" s="8">
+        <v>45750</v>
+      </c>
+      <c r="BI9" s="8">
+        <v>55050</v>
+      </c>
+      <c r="BJ9" s="8">
+        <v>64100</v>
+      </c>
+      <c r="BK9" s="8">
+        <v>81700</v>
+      </c>
+      <c r="BL9" s="8">
+        <v>55400</v>
+      </c>
+      <c r="BM9" s="8">
+        <v>79300</v>
+      </c>
+      <c r="BN9" s="8">
+        <v>110950</v>
+      </c>
+      <c r="BO9" s="8">
+        <v>76450</v>
+      </c>
+      <c r="BP9" s="8">
+        <v>66700</v>
+      </c>
+      <c r="BQ9" s="8">
+        <v>54550</v>
+      </c>
+      <c r="BR9" s="8">
+        <v>66050</v>
+      </c>
+      <c r="BS9" s="8">
+        <v>69900</v>
+      </c>
+      <c r="BT9" s="8">
+        <v>138350</v>
+      </c>
+      <c r="BU9" s="8">
+        <v>101550</v>
+      </c>
+      <c r="BV9" s="8">
+        <v>80850</v>
+      </c>
+      <c r="BW9" s="8">
+        <v>62100</v>
+      </c>
+      <c r="BX9" s="8">
+        <v>82550</v>
+      </c>
+      <c r="BY9" s="8">
+        <v>102650</v>
+      </c>
+      <c r="BZ9" s="8">
+        <v>73950</v>
+      </c>
+      <c r="CA9" s="8">
+        <v>85400</v>
+      </c>
+      <c r="CB9" s="8">
         <v>65650</v>
       </c>
-      <c r="BO3">
-        <v>68450</v>
-      </c>
-      <c r="BP3">
-        <v>66350</v>
-      </c>
-      <c r="BQ3">
-        <v>69900</v>
-      </c>
-      <c r="BR3">
-        <v>70250</v>
-      </c>
-      <c r="BS3">
-        <v>72900</v>
-      </c>
-      <c r="BT3">
-        <v>84050</v>
-      </c>
-      <c r="BU3">
-        <v>77550</v>
-      </c>
-      <c r="BV3">
-        <v>79150</v>
-      </c>
-      <c r="BW3">
-        <v>80900</v>
-      </c>
-      <c r="BX3">
-        <v>84950</v>
-      </c>
-      <c r="BY3">
-        <v>85950</v>
-      </c>
-      <c r="BZ3">
-        <v>87750</v>
-      </c>
-      <c r="CA3">
-        <v>92550</v>
-      </c>
-      <c r="CB3">
-        <v>91550</v>
-      </c>
-      <c r="CC3">
-        <v>93800</v>
-      </c>
-      <c r="CD3">
-        <v>94150</v>
-      </c>
-      <c r="CE3">
-        <v>99100</v>
-      </c>
-      <c r="CF3">
-        <v>99150</v>
-      </c>
-      <c r="CG3">
+      <c r="CC9" s="8">
+        <v>78300</v>
+      </c>
+      <c r="CD9" s="8">
+        <v>80400</v>
+      </c>
+      <c r="CE9" s="8">
+        <v>66750</v>
+      </c>
+      <c r="CF9" s="8">
+        <v>78400</v>
+      </c>
+      <c r="CG9" s="8">
+        <v>87700</v>
+      </c>
+      <c r="CH9" s="8">
+        <v>82750</v>
+      </c>
+      <c r="CI9" s="8">
+        <v>84900</v>
+      </c>
+      <c r="CJ9" s="8">
+        <v>132050</v>
+      </c>
+      <c r="CK9" s="8">
+        <v>95000</v>
+      </c>
+      <c r="CL9" s="8">
+        <v>85400</v>
+      </c>
+      <c r="CM9" s="8">
+        <v>104550</v>
+      </c>
+      <c r="CN9" s="8">
+        <v>118100</v>
+      </c>
+      <c r="CO9" s="8">
+        <v>78900</v>
+      </c>
+      <c r="CP9" s="8">
+        <v>80600</v>
+      </c>
+      <c r="CQ9" s="8">
+        <v>116300</v>
+      </c>
+      <c r="CR9" s="8">
+        <v>105000</v>
+      </c>
+      <c r="CS9" s="8">
+        <v>102300</v>
+      </c>
+      <c r="CT9" s="8">
         <v>103450</v>
       </c>
-      <c r="CH3">
-        <v>104050</v>
-      </c>
-      <c r="CI3">
-        <v>107300</v>
-      </c>
-      <c r="CJ3">
-        <v>110450</v>
-      </c>
-      <c r="CK3">
-        <v>111500</v>
-      </c>
-      <c r="CL3">
-        <v>113400</v>
-      </c>
-      <c r="CM3">
-        <v>117550</v>
-      </c>
-      <c r="CN3">
-        <v>118450</v>
-      </c>
-      <c r="CO3">
-        <v>124600</v>
-      </c>
-      <c r="CP3">
-        <v>125000</v>
-      </c>
-      <c r="CQ3">
-        <v>126150</v>
-      </c>
-      <c r="CR3">
-        <v>130550</v>
-      </c>
-      <c r="CS3">
-        <v>133500</v>
-      </c>
-      <c r="CT3">
-        <v>135600</v>
-      </c>
-      <c r="CU3">
-        <v>139400</v>
-      </c>
-      <c r="CV3">
-        <v>140400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>100</v>
-      </c>
-      <c r="B4">
-        <v>250</v>
-      </c>
-      <c r="C4">
-        <v>450</v>
-      </c>
-      <c r="D4">
-        <v>700</v>
-      </c>
-      <c r="E4">
-        <v>800</v>
-      </c>
-      <c r="F4">
-        <v>1150</v>
-      </c>
-      <c r="G4">
-        <v>1600</v>
-      </c>
-      <c r="H4">
-        <v>1800</v>
-      </c>
-      <c r="I4">
-        <v>2350</v>
-      </c>
-      <c r="J4">
-        <v>2600</v>
-      </c>
-      <c r="K4">
-        <v>2900</v>
-      </c>
-      <c r="L4">
-        <v>3350</v>
-      </c>
-      <c r="M4">
-        <v>3900</v>
-      </c>
-      <c r="N4">
-        <v>4600</v>
-      </c>
-      <c r="O4">
-        <v>5000</v>
-      </c>
-      <c r="P4">
-        <v>5550</v>
-      </c>
-      <c r="Q4">
-        <v>6150</v>
-      </c>
-      <c r="R4">
-        <v>6350</v>
-      </c>
-      <c r="S4">
-        <v>7150</v>
-      </c>
-      <c r="T4">
-        <v>7700</v>
-      </c>
-      <c r="U4">
-        <v>8450</v>
-      </c>
-      <c r="V4">
-        <v>9100</v>
-      </c>
-      <c r="W4">
-        <v>9800</v>
-      </c>
-      <c r="X4">
-        <v>10200</v>
-      </c>
-      <c r="Y4">
-        <v>10750</v>
-      </c>
-      <c r="Z4">
-        <v>6300</v>
-      </c>
-      <c r="AA4">
-        <v>6500</v>
-      </c>
-      <c r="AB4">
-        <v>6400</v>
-      </c>
-      <c r="AC4">
-        <v>6750</v>
-      </c>
-      <c r="AD4">
-        <v>7050</v>
-      </c>
-      <c r="AE4">
-        <v>8200</v>
-      </c>
-      <c r="AF4">
-        <v>7500</v>
-      </c>
-      <c r="AG4">
-        <v>8300</v>
-      </c>
-      <c r="AH4">
-        <v>10150</v>
-      </c>
-      <c r="AI4">
-        <v>10200</v>
-      </c>
-      <c r="AJ4">
-        <v>10950</v>
-      </c>
-      <c r="AK4">
-        <v>10450</v>
-      </c>
-      <c r="AL4">
-        <v>11600</v>
-      </c>
-      <c r="AM4">
-        <v>12100</v>
-      </c>
-      <c r="AN4">
-        <v>13300</v>
-      </c>
-      <c r="AO4">
-        <v>14250</v>
-      </c>
-      <c r="AP4">
-        <v>13600</v>
-      </c>
-      <c r="AQ4">
-        <v>15350</v>
-      </c>
-      <c r="AR4">
-        <v>15550</v>
-      </c>
-      <c r="AS4">
-        <v>16800</v>
-      </c>
-      <c r="AT4">
-        <v>17450</v>
-      </c>
-      <c r="AU4">
-        <v>16900</v>
-      </c>
-      <c r="AV4">
-        <v>17750</v>
-      </c>
-      <c r="AW4">
-        <v>20250</v>
-      </c>
-      <c r="AX4">
-        <v>19700</v>
-      </c>
-      <c r="AY4">
-        <v>20050</v>
-      </c>
-      <c r="AZ4">
-        <v>22250</v>
-      </c>
-      <c r="BA4">
-        <v>22850</v>
-      </c>
-      <c r="BB4">
-        <v>21350</v>
-      </c>
-      <c r="BC4">
-        <v>22400</v>
-      </c>
-      <c r="BD4">
-        <v>24800</v>
-      </c>
-      <c r="BE4">
-        <v>24500</v>
-      </c>
-      <c r="BF4">
-        <v>25900</v>
-      </c>
-      <c r="BG4">
-        <v>25950</v>
-      </c>
-      <c r="BH4">
-        <v>26200</v>
-      </c>
-      <c r="BI4">
-        <v>29300</v>
-      </c>
-      <c r="BJ4">
-        <v>28450</v>
-      </c>
-      <c r="BK4">
-        <v>30550</v>
-      </c>
-      <c r="BL4">
-        <v>29900</v>
-      </c>
-      <c r="BM4">
-        <v>30350</v>
-      </c>
-      <c r="BN4">
-        <v>33250</v>
-      </c>
-      <c r="BO4">
-        <v>36100</v>
-      </c>
-      <c r="BP4">
-        <v>35350</v>
-      </c>
-      <c r="BQ4">
-        <v>37650</v>
-      </c>
-      <c r="BR4">
-        <v>33850</v>
-      </c>
-      <c r="BS4">
-        <v>35650</v>
-      </c>
-      <c r="BT4">
-        <v>38300</v>
-      </c>
-      <c r="BU4">
-        <v>40450</v>
-      </c>
-      <c r="BV4">
-        <v>41000</v>
-      </c>
-      <c r="BW4">
-        <v>44700</v>
-      </c>
-      <c r="BX4">
-        <v>44100</v>
-      </c>
-      <c r="BY4">
-        <v>42700</v>
-      </c>
-      <c r="BZ4">
-        <v>44450</v>
-      </c>
-      <c r="CA4">
-        <v>50350</v>
-      </c>
-      <c r="CB4">
-        <v>47700</v>
-      </c>
-      <c r="CC4">
-        <v>47150</v>
-      </c>
-      <c r="CD4">
-        <v>47850</v>
-      </c>
-      <c r="CE4">
-        <v>46800</v>
-      </c>
-      <c r="CF4">
-        <v>52950</v>
-      </c>
-      <c r="CG4">
-        <v>53800</v>
-      </c>
-      <c r="CH4">
-        <v>53200</v>
-      </c>
-      <c r="CI4">
-        <v>54550</v>
-      </c>
-      <c r="CJ4">
-        <v>57700</v>
-      </c>
-      <c r="CK4">
-        <v>57050</v>
-      </c>
-      <c r="CL4">
-        <v>63450</v>
-      </c>
-      <c r="CM4">
-        <v>59700</v>
-      </c>
-      <c r="CN4">
-        <v>61250</v>
-      </c>
-      <c r="CO4">
-        <v>64500</v>
-      </c>
-      <c r="CP4">
-        <v>65300</v>
-      </c>
-      <c r="CQ4">
-        <v>61800</v>
-      </c>
-      <c r="CR4">
-        <v>75500</v>
-      </c>
-      <c r="CS4">
-        <v>68750</v>
-      </c>
-      <c r="CT4">
-        <v>104850</v>
-      </c>
-      <c r="CU4">
-        <v>67900</v>
-      </c>
-      <c r="CV4">
-        <v>72550</v>
-      </c>
-    </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>100</v>
-      </c>
-      <c r="B5">
-        <v>400</v>
-      </c>
-      <c r="C5">
-        <v>500</v>
-      </c>
-      <c r="D5">
-        <v>700</v>
-      </c>
-      <c r="E5">
-        <v>1000</v>
-      </c>
-      <c r="F5">
-        <v>1300</v>
-      </c>
-      <c r="G5">
-        <v>1550</v>
-      </c>
-      <c r="H5">
-        <v>2050</v>
-      </c>
-      <c r="I5">
-        <v>2450</v>
-      </c>
-      <c r="J5">
-        <v>2850</v>
-      </c>
-      <c r="K5">
-        <v>3450</v>
-      </c>
-      <c r="L5">
-        <v>3800</v>
-      </c>
-      <c r="M5">
-        <v>4350</v>
-      </c>
-      <c r="N5">
-        <v>4850</v>
-      </c>
-      <c r="O5">
-        <v>5450</v>
-      </c>
-      <c r="P5">
-        <v>5900</v>
-      </c>
-      <c r="Q5">
-        <v>6800</v>
-      </c>
-      <c r="R5">
-        <v>7700</v>
-      </c>
-      <c r="S5">
-        <v>8250</v>
-      </c>
-      <c r="T5">
-        <v>9000</v>
-      </c>
-      <c r="U5">
-        <v>9500</v>
-      </c>
-      <c r="V5">
-        <v>10250</v>
-      </c>
-      <c r="W5">
-        <v>11100</v>
-      </c>
-      <c r="X5">
-        <v>11950</v>
-      </c>
-      <c r="Y5">
-        <v>12800</v>
-      </c>
-      <c r="Z5">
-        <v>13850</v>
-      </c>
-      <c r="AA5">
-        <v>15700</v>
-      </c>
-      <c r="AB5">
-        <v>15400</v>
-      </c>
-      <c r="AC5">
-        <v>16500</v>
-      </c>
-      <c r="AD5">
-        <v>17400</v>
-      </c>
-      <c r="AE5">
-        <v>18950</v>
-      </c>
-      <c r="AF5">
-        <v>19950</v>
-      </c>
-      <c r="AG5">
-        <v>20850</v>
-      </c>
-      <c r="AH5">
-        <v>22450</v>
-      </c>
-      <c r="AI5">
-        <v>23750</v>
-      </c>
-      <c r="AJ5">
-        <v>24700</v>
-      </c>
-      <c r="AK5">
-        <v>25950</v>
-      </c>
-      <c r="AL5">
-        <v>27500</v>
-      </c>
-      <c r="AM5">
-        <v>29200</v>
-      </c>
-      <c r="AN5">
-        <v>30200</v>
-      </c>
-      <c r="AO5">
-        <v>31750</v>
-      </c>
-      <c r="AP5">
-        <v>33250</v>
-      </c>
-      <c r="AQ5">
-        <v>34400</v>
-      </c>
-      <c r="AR5">
-        <v>35950</v>
-      </c>
-      <c r="AS5">
-        <v>37850</v>
-      </c>
-      <c r="AT5">
-        <v>41600</v>
-      </c>
-      <c r="AU5">
-        <v>40700</v>
-      </c>
-      <c r="AV5">
-        <v>42800</v>
-      </c>
-      <c r="AW5">
-        <v>45700</v>
-      </c>
-      <c r="AX5">
-        <v>47450</v>
-      </c>
-      <c r="AY5">
-        <v>47600</v>
-      </c>
-      <c r="AZ5">
-        <v>49750</v>
-      </c>
-      <c r="BA5">
-        <v>51250</v>
-      </c>
-      <c r="BB5">
-        <v>53700</v>
-      </c>
-      <c r="BC5">
-        <v>56800</v>
-      </c>
-      <c r="BD5">
-        <v>57350</v>
-      </c>
-      <c r="BE5">
-        <v>58650</v>
-      </c>
-      <c r="BF5">
-        <v>62450</v>
-      </c>
-      <c r="BG5">
-        <v>62950</v>
-      </c>
-      <c r="BH5">
-        <v>65950</v>
-      </c>
-      <c r="BI5">
-        <v>71700</v>
-      </c>
-      <c r="BJ5">
-        <v>71850</v>
-      </c>
-      <c r="BK5">
-        <v>72350</v>
-      </c>
-      <c r="BL5">
-        <v>75450</v>
-      </c>
-      <c r="BM5">
-        <v>77150</v>
-      </c>
-      <c r="BN5">
-        <v>80000</v>
-      </c>
-      <c r="BO5">
-        <v>79800</v>
-      </c>
-      <c r="BP5">
-        <v>84050</v>
-      </c>
-      <c r="BQ5">
-        <v>85650</v>
-      </c>
-      <c r="BR5">
-        <v>88800</v>
-      </c>
-      <c r="BS5">
-        <v>89300</v>
-      </c>
-      <c r="BT5">
-        <v>95000</v>
-      </c>
-      <c r="BU5">
-        <v>94050</v>
-      </c>
-      <c r="BV5">
-        <v>99000</v>
-      </c>
-      <c r="BW5">
-        <v>99450</v>
-      </c>
-      <c r="BX5">
-        <v>102950</v>
-      </c>
-      <c r="BY5">
-        <v>105550</v>
-      </c>
-      <c r="BZ5">
-        <v>108050</v>
-      </c>
-      <c r="CA5">
-        <v>111350</v>
-      </c>
-      <c r="CB5">
-        <v>115950</v>
-      </c>
-      <c r="CC5">
-        <v>115450</v>
-      </c>
-      <c r="CD5">
-        <v>120250</v>
-      </c>
-      <c r="CE5">
-        <v>121500</v>
-      </c>
-      <c r="CF5">
-        <v>125950</v>
-      </c>
-      <c r="CG5">
-        <v>128500</v>
-      </c>
-      <c r="CH5">
-        <v>129950</v>
-      </c>
-      <c r="CI5">
-        <v>132100</v>
-      </c>
-      <c r="CJ5">
-        <v>136900</v>
-      </c>
-      <c r="CK5">
-        <v>138200</v>
-      </c>
-      <c r="CL5">
-        <v>143200</v>
-      </c>
-      <c r="CM5">
-        <v>144700</v>
-      </c>
-      <c r="CN5">
-        <v>149150</v>
-      </c>
-      <c r="CO5">
-        <v>166000</v>
-      </c>
-      <c r="CP5">
-        <v>157050</v>
-      </c>
-      <c r="CQ5">
-        <v>156550</v>
-      </c>
-      <c r="CR5">
-        <v>161550</v>
-      </c>
-      <c r="CS5">
-        <v>163300</v>
-      </c>
-      <c r="CT5">
-        <v>168750</v>
-      </c>
-      <c r="CU5">
-        <v>169850</v>
-      </c>
-      <c r="CV5">
-        <v>176000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <v>150</v>
-      </c>
-      <c r="C6">
-        <v>150</v>
-      </c>
-      <c r="D6">
-        <v>200</v>
-      </c>
-      <c r="E6">
-        <v>300</v>
-      </c>
-      <c r="F6">
-        <v>250</v>
-      </c>
-      <c r="G6">
-        <v>350</v>
-      </c>
-      <c r="H6">
-        <v>400</v>
-      </c>
-      <c r="I6">
-        <v>450</v>
-      </c>
-      <c r="J6">
-        <v>450</v>
-      </c>
-      <c r="K6">
-        <v>600</v>
-      </c>
-      <c r="L6">
-        <v>700</v>
-      </c>
-      <c r="M6">
-        <v>850</v>
-      </c>
-      <c r="N6">
-        <v>850</v>
-      </c>
-      <c r="O6">
-        <v>850</v>
-      </c>
-      <c r="P6">
-        <v>650</v>
-      </c>
-      <c r="Q6">
-        <v>700</v>
-      </c>
-      <c r="R6">
-        <v>750</v>
-      </c>
-      <c r="S6">
-        <v>750</v>
-      </c>
-      <c r="T6">
-        <v>900</v>
-      </c>
-      <c r="U6">
-        <v>900</v>
-      </c>
-      <c r="V6">
-        <v>1050</v>
-      </c>
-      <c r="W6">
-        <v>1000</v>
-      </c>
-      <c r="X6">
-        <v>1250</v>
-      </c>
-      <c r="Y6">
-        <v>1050</v>
-      </c>
-      <c r="Z6">
-        <v>1050</v>
-      </c>
-      <c r="AA6">
-        <v>1050</v>
-      </c>
-      <c r="AB6">
-        <v>1150</v>
-      </c>
-      <c r="AC6">
-        <v>1200</v>
-      </c>
-      <c r="AD6">
-        <v>1300</v>
-      </c>
-      <c r="AE6">
-        <v>1300</v>
-      </c>
-      <c r="AF6">
-        <v>1250</v>
-      </c>
-      <c r="AG6">
-        <v>1550</v>
-      </c>
-      <c r="AH6">
-        <v>1600</v>
-      </c>
-      <c r="AI6">
-        <v>1650</v>
-      </c>
-      <c r="AJ6">
-        <v>1750</v>
-      </c>
-      <c r="AK6">
-        <v>1700</v>
-      </c>
-      <c r="AL6">
-        <v>1800</v>
-      </c>
-      <c r="AM6">
-        <v>2000</v>
-      </c>
-      <c r="AN6">
-        <v>2050</v>
-      </c>
-      <c r="AO6">
-        <v>2000</v>
-      </c>
-      <c r="AP6">
-        <v>2050</v>
-      </c>
-      <c r="AQ6">
-        <v>2150</v>
-      </c>
-      <c r="AR6">
-        <v>2050</v>
-      </c>
-      <c r="AS6">
-        <v>2500</v>
-      </c>
-      <c r="AT6">
-        <v>2350</v>
-      </c>
-      <c r="AU6">
-        <v>2500</v>
-      </c>
-      <c r="AV6">
-        <v>2600</v>
-      </c>
-      <c r="AW6">
-        <v>2850</v>
-      </c>
-      <c r="AX6">
-        <v>2800</v>
-      </c>
-      <c r="AY6">
-        <v>2600</v>
-      </c>
-      <c r="AZ6">
-        <v>3050</v>
-      </c>
-      <c r="BA6">
-        <v>3250</v>
-      </c>
-      <c r="BB6">
-        <v>3050</v>
-      </c>
-      <c r="BC6">
-        <v>3350</v>
-      </c>
-      <c r="BD6">
-        <v>3400</v>
-      </c>
-      <c r="BE6">
-        <v>3600</v>
-      </c>
-      <c r="BF6">
-        <v>3650</v>
-      </c>
-      <c r="BG6">
-        <v>3750</v>
-      </c>
-      <c r="BH6">
-        <v>3700</v>
-      </c>
-      <c r="BI6">
-        <v>3850</v>
-      </c>
-      <c r="BJ6">
-        <v>3900</v>
-      </c>
-      <c r="BK6">
-        <v>3950</v>
-      </c>
-      <c r="BL6">
-        <v>4000</v>
-      </c>
-      <c r="BM6">
-        <v>4250</v>
-      </c>
-      <c r="BN6">
-        <v>4300</v>
-      </c>
-      <c r="BO6">
-        <v>4300</v>
-      </c>
-      <c r="BP6">
-        <v>4400</v>
-      </c>
-      <c r="BQ6">
-        <v>4600</v>
-      </c>
-      <c r="BR6">
-        <v>4650</v>
-      </c>
-      <c r="BS6">
-        <v>4700</v>
-      </c>
-      <c r="BT6">
-        <v>4750</v>
-      </c>
-      <c r="BU6">
-        <v>4850</v>
-      </c>
-      <c r="BV6">
-        <v>5000</v>
-      </c>
-      <c r="BW6">
-        <v>5700</v>
-      </c>
-      <c r="BX6">
-        <v>5700</v>
-      </c>
-      <c r="BY6">
-        <v>5350</v>
-      </c>
-      <c r="BZ6">
-        <v>5550</v>
-      </c>
-      <c r="CA6">
-        <v>6050</v>
-      </c>
-      <c r="CB6">
-        <v>5300</v>
-      </c>
-      <c r="CC6">
-        <v>6000</v>
-      </c>
-      <c r="CD6">
-        <v>5800</v>
-      </c>
-      <c r="CE6">
-        <v>6100</v>
-      </c>
-      <c r="CF6">
-        <v>6550</v>
-      </c>
-      <c r="CG6">
-        <v>6450</v>
-      </c>
-      <c r="CH6">
-        <v>6250</v>
-      </c>
-      <c r="CI6">
-        <v>6600</v>
-      </c>
-      <c r="CJ6">
-        <v>6850</v>
-      </c>
-      <c r="CK6">
-        <v>6900</v>
-      </c>
-      <c r="CL6">
-        <v>6900</v>
-      </c>
-      <c r="CM6">
-        <v>7350</v>
-      </c>
-      <c r="CN6">
-        <v>7100</v>
-      </c>
-      <c r="CO6">
-        <v>7500</v>
-      </c>
-      <c r="CP6">
-        <v>7700</v>
-      </c>
-      <c r="CQ6">
-        <v>7800</v>
-      </c>
-      <c r="CR6">
-        <v>7550</v>
-      </c>
-      <c r="CS6">
-        <v>7650</v>
-      </c>
-      <c r="CT6">
-        <v>8250</v>
-      </c>
-      <c r="CU6">
-        <v>8100</v>
-      </c>
-      <c r="CV6">
-        <v>8200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>250</v>
-      </c>
-      <c r="B7">
-        <v>400</v>
-      </c>
-      <c r="C7">
-        <v>500</v>
-      </c>
-      <c r="D7">
-        <v>600</v>
-      </c>
-      <c r="E7">
-        <v>800</v>
-      </c>
-      <c r="F7">
-        <v>900</v>
-      </c>
-      <c r="G7">
-        <v>1000</v>
-      </c>
-      <c r="H7">
-        <v>1450</v>
-      </c>
-      <c r="I7">
-        <v>1500</v>
-      </c>
-      <c r="J7">
-        <v>1650</v>
-      </c>
-      <c r="K7">
-        <v>1900</v>
-      </c>
-      <c r="L7">
-        <v>2050</v>
-      </c>
-      <c r="M7">
-        <v>2650</v>
-      </c>
-      <c r="N7">
-        <v>2750</v>
-      </c>
-      <c r="O7">
-        <v>2950</v>
-      </c>
-      <c r="P7">
-        <v>2600</v>
-      </c>
-      <c r="Q7">
-        <v>2800</v>
-      </c>
-      <c r="R7">
-        <v>3250</v>
-      </c>
-      <c r="S7">
-        <v>3650</v>
-      </c>
-      <c r="T7">
-        <v>3800</v>
-      </c>
-      <c r="U7">
-        <v>3450</v>
-      </c>
-      <c r="V7">
-        <v>3600</v>
-      </c>
-      <c r="W7">
-        <v>3650</v>
-      </c>
-      <c r="X7">
-        <v>4050</v>
-      </c>
-      <c r="Y7">
-        <v>4300</v>
-      </c>
-      <c r="Z7">
-        <v>4650</v>
-      </c>
-      <c r="AA7">
-        <v>5100</v>
-      </c>
-      <c r="AB7">
-        <v>4750</v>
-      </c>
-      <c r="AC7">
-        <v>4700</v>
-      </c>
-      <c r="AD7">
-        <v>5400</v>
-      </c>
-      <c r="AE7">
-        <v>5250</v>
-      </c>
-      <c r="AF7">
-        <v>5300</v>
-      </c>
-      <c r="AG7">
-        <v>5350</v>
-      </c>
-      <c r="AH7">
-        <v>5500</v>
-      </c>
-      <c r="AI7">
-        <v>6150</v>
-      </c>
-      <c r="AJ7">
-        <v>5800</v>
-      </c>
-      <c r="AK7">
-        <v>5650</v>
-      </c>
-      <c r="AL7">
-        <v>5500</v>
-      </c>
-      <c r="AM7">
-        <v>6050</v>
-      </c>
-      <c r="AN7">
-        <v>6100</v>
-      </c>
-      <c r="AO7">
-        <v>6250</v>
-      </c>
-      <c r="AP7">
-        <v>6200</v>
-      </c>
-      <c r="AQ7">
-        <v>6700</v>
-      </c>
-      <c r="AR7">
-        <v>6700</v>
-      </c>
-      <c r="AS7">
-        <v>6900</v>
-      </c>
-      <c r="AT7">
-        <v>6950</v>
-      </c>
-      <c r="AU7">
-        <v>7050</v>
-      </c>
-      <c r="AV7">
-        <v>7150</v>
-      </c>
-      <c r="AW7">
-        <v>7700</v>
-      </c>
-      <c r="AX7">
-        <v>7550</v>
-      </c>
-      <c r="AY7">
-        <v>7650</v>
-      </c>
-      <c r="AZ7">
-        <v>7900</v>
-      </c>
-      <c r="BA7">
-        <v>7950</v>
-      </c>
-      <c r="BB7">
-        <v>8100</v>
-      </c>
-      <c r="BC7">
-        <v>8300</v>
-      </c>
-      <c r="BD7">
-        <v>8550</v>
-      </c>
-      <c r="BE7">
-        <v>8500</v>
-      </c>
-      <c r="BF7">
-        <v>8750</v>
-      </c>
-      <c r="BG7">
-        <v>9100</v>
-      </c>
-      <c r="BH7">
-        <v>10000</v>
-      </c>
-      <c r="BI7">
-        <v>9550</v>
-      </c>
-      <c r="BJ7">
-        <v>9400</v>
-      </c>
-      <c r="BK7">
-        <v>9600</v>
-      </c>
-      <c r="BL7">
-        <v>10650</v>
-      </c>
-      <c r="BM7">
-        <v>11550</v>
-      </c>
-      <c r="BN7">
-        <v>10600</v>
-      </c>
-      <c r="BO7">
-        <v>10700</v>
-      </c>
-      <c r="BP7">
-        <v>10600</v>
-      </c>
-      <c r="BQ7">
-        <v>10900</v>
-      </c>
-      <c r="BR7">
-        <v>11000</v>
-      </c>
-      <c r="BS7">
-        <v>10950</v>
-      </c>
-      <c r="BT7">
-        <v>11350</v>
-      </c>
-      <c r="BU7">
-        <v>11550</v>
-      </c>
-      <c r="BV7">
-        <v>11950</v>
-      </c>
-      <c r="BW7">
-        <v>11950</v>
-      </c>
-      <c r="BX7">
-        <v>11700</v>
-      </c>
-      <c r="BY7">
-        <v>12350</v>
-      </c>
-      <c r="BZ7">
-        <v>11950</v>
-      </c>
-      <c r="CA7">
-        <v>12850</v>
-      </c>
-      <c r="CB7">
-        <v>12250</v>
-      </c>
-      <c r="CC7">
-        <v>12750</v>
-      </c>
-      <c r="CD7">
-        <v>12900</v>
-      </c>
-      <c r="CE7">
-        <v>13000</v>
-      </c>
-      <c r="CF7">
-        <v>13200</v>
-      </c>
-      <c r="CG7">
-        <v>13700</v>
-      </c>
-      <c r="CH7">
-        <v>13550</v>
-      </c>
-      <c r="CI7">
-        <v>14150</v>
-      </c>
-      <c r="CJ7">
-        <v>14150</v>
-      </c>
-      <c r="CK7">
-        <v>14000</v>
-      </c>
-      <c r="CL7">
-        <v>14300</v>
-      </c>
-      <c r="CM7">
-        <v>14200</v>
-      </c>
-      <c r="CN7">
-        <v>14950</v>
-      </c>
-      <c r="CO7">
-        <v>14900</v>
-      </c>
-      <c r="CP7">
-        <v>14950</v>
-      </c>
-      <c r="CQ7">
-        <v>15100</v>
-      </c>
-      <c r="CR7">
-        <v>15200</v>
-      </c>
-      <c r="CS7">
-        <v>15450</v>
-      </c>
-      <c r="CT7">
-        <v>15700</v>
-      </c>
-      <c r="CU7">
-        <v>15850</v>
-      </c>
-      <c r="CV7">
-        <v>15950</v>
-      </c>
-    </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>100</v>
-      </c>
-      <c r="B8">
-        <v>250</v>
-      </c>
-      <c r="C8">
-        <v>400</v>
-      </c>
-      <c r="D8">
-        <v>600</v>
-      </c>
-      <c r="E8">
-        <v>700</v>
-      </c>
-      <c r="F8">
-        <v>950</v>
-      </c>
-      <c r="G8">
-        <v>1250</v>
-      </c>
-      <c r="H8">
-        <v>1550</v>
-      </c>
-      <c r="I8">
-        <v>1800</v>
-      </c>
-      <c r="J8">
-        <v>2150</v>
-      </c>
-      <c r="K8">
-        <v>2400</v>
-      </c>
-      <c r="L8">
-        <v>2800</v>
-      </c>
-      <c r="M8">
-        <v>3550</v>
-      </c>
-      <c r="N8">
-        <v>3700</v>
-      </c>
-      <c r="O8">
-        <v>4000</v>
-      </c>
-      <c r="P8">
-        <v>5700</v>
-      </c>
-      <c r="Q8">
-        <v>6050</v>
-      </c>
-      <c r="R8">
-        <v>6350</v>
-      </c>
-      <c r="S8">
-        <v>6700</v>
-      </c>
-      <c r="T8">
-        <v>7350</v>
-      </c>
-      <c r="U8">
-        <v>11050</v>
-      </c>
-      <c r="V8">
-        <v>9250</v>
-      </c>
-      <c r="W8">
-        <v>9750</v>
-      </c>
-      <c r="X8">
-        <v>10400</v>
-      </c>
-      <c r="Y8">
-        <v>10950</v>
-      </c>
-      <c r="Z8">
-        <v>15800</v>
-      </c>
-      <c r="AA8">
-        <v>19150</v>
-      </c>
-      <c r="AB8">
-        <v>17850</v>
-      </c>
-      <c r="AC8">
-        <v>19300</v>
-      </c>
-      <c r="AD8">
-        <v>20350</v>
-      </c>
-      <c r="AE8">
-        <v>21900</v>
-      </c>
-      <c r="AF8">
-        <v>25200</v>
-      </c>
-      <c r="AG8">
-        <v>24300</v>
-      </c>
-      <c r="AH8">
-        <v>29450</v>
-      </c>
-      <c r="AI8">
-        <v>29400</v>
-      </c>
-      <c r="AJ8">
-        <v>31300</v>
-      </c>
-      <c r="AK8">
-        <v>32300</v>
-      </c>
-      <c r="AL8">
-        <v>32800</v>
-      </c>
-      <c r="AM8">
-        <v>33800</v>
-      </c>
-      <c r="AN8">
-        <v>36900</v>
-      </c>
-      <c r="AO8">
-        <v>40700</v>
-      </c>
-      <c r="AP8">
-        <v>41500</v>
-      </c>
-      <c r="AQ8">
-        <v>40600</v>
-      </c>
-      <c r="AR8">
-        <v>47350</v>
-      </c>
-      <c r="AS8">
-        <v>47900</v>
-      </c>
-      <c r="AT8">
-        <v>48500</v>
-      </c>
-      <c r="AU8">
-        <v>49650</v>
-      </c>
-      <c r="AV8">
-        <v>54500</v>
-      </c>
-      <c r="AW8">
-        <v>52150</v>
-      </c>
-      <c r="AX8">
-        <v>54100</v>
-      </c>
-      <c r="AY8">
-        <v>58650</v>
-      </c>
-      <c r="AZ8">
-        <v>58550</v>
-      </c>
-      <c r="BA8">
-        <v>61350</v>
-      </c>
-      <c r="BB8">
-        <v>62750</v>
-      </c>
-      <c r="BC8">
-        <v>66450</v>
-      </c>
-      <c r="BD8">
-        <v>67350</v>
-      </c>
-      <c r="BE8">
-        <v>72000</v>
-      </c>
-      <c r="BF8">
-        <v>71450</v>
-      </c>
-      <c r="BG8">
-        <v>74450</v>
-      </c>
-      <c r="BH8">
-        <v>77700</v>
-      </c>
-      <c r="BI8">
-        <v>78800</v>
-      </c>
-      <c r="BJ8">
-        <v>84950</v>
-      </c>
-      <c r="BK8">
-        <v>84600</v>
-      </c>
-      <c r="BL8">
-        <v>86300</v>
-      </c>
-      <c r="BM8">
-        <v>90450</v>
-      </c>
-      <c r="BN8">
-        <v>92400</v>
-      </c>
-      <c r="BO8">
-        <v>96400</v>
-      </c>
-      <c r="BP8">
-        <v>98750</v>
-      </c>
-      <c r="BQ8">
-        <v>104050</v>
-      </c>
-      <c r="BR8">
-        <v>79950</v>
-      </c>
-      <c r="BS8">
-        <v>80900</v>
-      </c>
-      <c r="BT8">
-        <v>83950</v>
-      </c>
-      <c r="BU8">
-        <v>85150</v>
-      </c>
-      <c r="BV8">
-        <v>87650</v>
-      </c>
-      <c r="BW8">
-        <v>93200</v>
-      </c>
-      <c r="BX8">
-        <v>95950</v>
-      </c>
-      <c r="BY8">
-        <v>94700</v>
-      </c>
-      <c r="BZ8">
-        <v>102300</v>
-      </c>
-      <c r="CA8">
-        <v>107200</v>
-      </c>
-      <c r="CB8">
-        <v>104850</v>
-      </c>
-      <c r="CC8">
-        <v>108250</v>
-      </c>
-      <c r="CD8">
-        <v>98800</v>
-      </c>
-      <c r="CE8">
-        <v>96000</v>
-      </c>
-      <c r="CF8">
-        <v>97050</v>
-      </c>
-      <c r="CG8">
-        <v>103500</v>
-      </c>
-      <c r="CH8">
-        <v>95100</v>
-      </c>
-      <c r="CI8">
-        <v>97200</v>
-      </c>
-      <c r="CJ8">
-        <v>99450</v>
-      </c>
-      <c r="CK8">
-        <v>100850</v>
-      </c>
-      <c r="CL8">
-        <v>106700</v>
-      </c>
-      <c r="CM8">
-        <v>112000</v>
-      </c>
-      <c r="CN8">
-        <v>108300</v>
-      </c>
-      <c r="CO8">
-        <v>114000</v>
-      </c>
-      <c r="CP8">
-        <v>115900</v>
-      </c>
-      <c r="CQ8">
-        <v>115950</v>
-      </c>
-      <c r="CR8">
-        <v>121550</v>
-      </c>
-      <c r="CS8">
-        <v>123400</v>
-      </c>
-      <c r="CT8">
-        <v>127600</v>
-      </c>
-      <c r="CU8">
-        <v>125750</v>
-      </c>
-      <c r="CV8">
-        <v>131400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>850</v>
-      </c>
-      <c r="B9">
-        <v>1500</v>
-      </c>
-      <c r="C9">
-        <v>2000</v>
-      </c>
-      <c r="D9">
-        <v>2200</v>
-      </c>
-      <c r="E9">
-        <v>3750</v>
-      </c>
-      <c r="F9">
-        <v>3750</v>
-      </c>
-      <c r="G9">
-        <v>4350</v>
-      </c>
-      <c r="H9">
-        <v>5400</v>
-      </c>
-      <c r="I9">
-        <v>6150</v>
-      </c>
-      <c r="J9">
-        <v>6450</v>
-      </c>
-      <c r="K9">
-        <v>8300</v>
-      </c>
-      <c r="L9">
-        <v>8400</v>
-      </c>
-      <c r="M9">
-        <v>8800</v>
-      </c>
-      <c r="N9">
-        <v>14600</v>
-      </c>
-      <c r="O9">
-        <v>11300</v>
-      </c>
-      <c r="P9">
-        <v>10250</v>
-      </c>
-      <c r="Q9">
-        <v>26050</v>
-      </c>
-      <c r="R9">
-        <v>15050</v>
-      </c>
-      <c r="S9">
-        <v>11550</v>
-      </c>
-      <c r="T9">
-        <v>14100</v>
-      </c>
-      <c r="U9">
-        <v>18900</v>
-      </c>
-      <c r="V9">
-        <v>13200</v>
-      </c>
-      <c r="W9">
-        <v>21250</v>
-      </c>
-      <c r="X9">
-        <v>14150</v>
-      </c>
-      <c r="Y9">
-        <v>14750</v>
-      </c>
-      <c r="Z9">
-        <v>20800</v>
-      </c>
-      <c r="AA9">
-        <v>15800</v>
-      </c>
-      <c r="AB9">
-        <v>22150</v>
-      </c>
-      <c r="AC9">
-        <v>17200</v>
-      </c>
-      <c r="AD9">
-        <v>29950</v>
-      </c>
-      <c r="AE9">
-        <v>18150</v>
-      </c>
-      <c r="AF9">
-        <v>18650</v>
-      </c>
-      <c r="AG9">
-        <v>19850</v>
-      </c>
-      <c r="AH9">
-        <v>26950</v>
-      </c>
-      <c r="AI9">
-        <v>21650</v>
-      </c>
-      <c r="AJ9">
-        <v>22200</v>
-      </c>
-      <c r="AK9">
-        <v>23800</v>
-      </c>
-      <c r="AL9">
-        <v>31450</v>
-      </c>
-      <c r="AM9">
-        <v>24600</v>
-      </c>
-      <c r="AN9">
-        <v>33950</v>
-      </c>
-      <c r="AO9">
-        <v>30150</v>
-      </c>
-      <c r="AP9">
-        <v>26700</v>
-      </c>
-      <c r="AQ9">
-        <v>27300</v>
-      </c>
-      <c r="AR9">
-        <v>27350</v>
-      </c>
-      <c r="AS9">
-        <v>53250</v>
-      </c>
-      <c r="AT9">
-        <v>36250</v>
-      </c>
-      <c r="AU9">
-        <v>38800</v>
-      </c>
-      <c r="AV9">
-        <v>30500</v>
-      </c>
-      <c r="AW9">
-        <v>31150</v>
-      </c>
-      <c r="AX9">
-        <v>47550</v>
-      </c>
-      <c r="AY9">
-        <v>31050</v>
-      </c>
-      <c r="AZ9">
-        <v>49800</v>
-      </c>
-      <c r="BA9">
-        <v>34000</v>
-      </c>
-      <c r="BB9">
-        <v>49750</v>
-      </c>
-      <c r="BC9">
-        <v>52300</v>
-      </c>
-      <c r="BD9">
-        <v>48400</v>
-      </c>
-      <c r="BE9">
-        <v>40400</v>
-      </c>
-      <c r="BF9">
-        <v>39900</v>
-      </c>
-      <c r="BG9">
-        <v>51700</v>
-      </c>
-      <c r="BH9">
-        <v>41450</v>
-      </c>
-      <c r="BI9">
-        <v>42900</v>
-      </c>
-      <c r="BJ9">
-        <v>45600</v>
-      </c>
-      <c r="BK9">
-        <v>47250</v>
-      </c>
-      <c r="BL9">
-        <v>56000</v>
-      </c>
-      <c r="BM9">
-        <v>40300</v>
-      </c>
-      <c r="BN9">
-        <v>74200</v>
-      </c>
-      <c r="BO9">
-        <v>47100</v>
-      </c>
-      <c r="BP9">
-        <v>42250</v>
-      </c>
-      <c r="BQ9">
-        <v>64000</v>
-      </c>
-      <c r="BR9">
-        <v>49200</v>
-      </c>
-      <c r="BS9">
-        <v>91350</v>
-      </c>
-      <c r="BT9">
-        <v>63150</v>
-      </c>
-      <c r="BU9">
-        <v>49950</v>
-      </c>
-      <c r="BV9">
-        <v>51950</v>
-      </c>
-      <c r="BW9">
-        <v>69900</v>
-      </c>
-      <c r="BX9">
-        <v>50450</v>
-      </c>
-      <c r="BY9">
-        <v>105150</v>
-      </c>
-      <c r="BZ9">
-        <v>48300</v>
-      </c>
-      <c r="CA9">
-        <v>61450</v>
-      </c>
-      <c r="CB9">
-        <v>80350</v>
-      </c>
-      <c r="CC9">
-        <v>61150</v>
-      </c>
-      <c r="CD9">
-        <v>65550</v>
-      </c>
-      <c r="CE9">
-        <v>73900</v>
-      </c>
-      <c r="CF9">
-        <v>63350</v>
-      </c>
-      <c r="CG9">
-        <v>57650</v>
-      </c>
-      <c r="CH9">
-        <v>58050</v>
-      </c>
-      <c r="CI9">
-        <v>93000</v>
-      </c>
-      <c r="CJ9">
-        <v>79000</v>
-      </c>
-      <c r="CK9">
-        <v>81150</v>
-      </c>
-      <c r="CL9">
-        <v>88350</v>
-      </c>
-      <c r="CM9">
-        <v>67500</v>
-      </c>
-      <c r="CN9">
-        <v>63950</v>
-      </c>
-      <c r="CO9">
-        <v>74800</v>
-      </c>
-      <c r="CP9">
-        <v>55650</v>
-      </c>
-      <c r="CQ9">
-        <v>80900</v>
-      </c>
-      <c r="CR9">
-        <v>57550</v>
-      </c>
-      <c r="CS9">
-        <v>65400</v>
-      </c>
-      <c r="CT9">
-        <v>79800</v>
-      </c>
-      <c r="CU9">
-        <v>90200</v>
-      </c>
-      <c r="CV9">
-        <v>80400</v>
+      <c r="CU9" s="8">
+        <v>106950</v>
+      </c>
+      <c r="CV9" s="8">
+        <v>106600</v>
+      </c>
+      <c r="CW9" s="8">
+        <v>102000</v>
       </c>
     </row>
   </sheetData>
